--- a/EC/Train Runs 2016-05-17 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-17 (FRA Format).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="1959">
   <si>
     <t>Train ID</t>
   </si>
@@ -6735,11 +6735,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="250">
+  <dxfs count="252">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6831,6 +6852,27 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8458,34 +8500,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8725,11 +8739,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12545,42 +12559,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A144:G171 C3:D143 F3:G143">
-    <cfRule type="expression" dxfId="135" priority="10">
+    <cfRule type="expression" dxfId="141" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="11">
+    <cfRule type="expression" dxfId="140" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="12">
+    <cfRule type="expression" dxfId="139" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A3:B84 A86:B143 E3:E143">
-    <cfRule type="expression" dxfId="132" priority="8">
+    <cfRule type="expression" dxfId="138" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="9">
+    <cfRule type="expression" dxfId="137" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A3:D84 A86:D143 F3:G143">
-    <cfRule type="expression" dxfId="130" priority="6">
+    <cfRule type="expression" dxfId="136" priority="6">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="129" priority="3">
+    <cfRule type="expression" dxfId="135" priority="3">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="4">
+    <cfRule type="expression" dxfId="134" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="5">
+    <cfRule type="expression" dxfId="133" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="126" priority="2">
+    <cfRule type="expression" dxfId="132" priority="2">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16058,50 +16072,50 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G162">
-    <cfRule type="expression" dxfId="123" priority="33">
+    <cfRule type="expression" dxfId="129" priority="33">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="34">
+    <cfRule type="expression" dxfId="128" priority="34">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="35">
+    <cfRule type="expression" dxfId="127" priority="35">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G162">
-    <cfRule type="expression" dxfId="120" priority="29">
+    <cfRule type="expression" dxfId="126" priority="29">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 A89:B90 A103:B103 A121:B121 A113:B113">
-    <cfRule type="expression" dxfId="119" priority="54">
+    <cfRule type="expression" dxfId="125" priority="54">
       <formula>$P4&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="55">
+    <cfRule type="expression" dxfId="124" priority="55">
       <formula>$O4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B87 A91:B101 A124:B162 A104:B111 A114:B119">
-    <cfRule type="expression" dxfId="117" priority="69">
+    <cfRule type="expression" dxfId="123" priority="69">
       <formula>$P8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="70">
+    <cfRule type="expression" dxfId="122" priority="70">
       <formula>$O8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:B88 A102:B102 A120:B120 A122:B123">
-    <cfRule type="expression" dxfId="115" priority="87">
+    <cfRule type="expression" dxfId="121" priority="87">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="88">
+    <cfRule type="expression" dxfId="120" priority="88">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B112">
-    <cfRule type="expression" dxfId="113" priority="109">
+    <cfRule type="expression" dxfId="119" priority="109">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="110">
+    <cfRule type="expression" dxfId="118" priority="110">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19664,26 +19678,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A165:G169 C3:G164">
-    <cfRule type="expression" dxfId="107" priority="25">
+    <cfRule type="expression" dxfId="113" priority="25">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="26">
+    <cfRule type="expression" dxfId="112" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="27">
+    <cfRule type="expression" dxfId="111" priority="27">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B164">
-    <cfRule type="expression" dxfId="104" priority="23">
+    <cfRule type="expression" dxfId="110" priority="23">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="24">
+    <cfRule type="expression" dxfId="109" priority="24">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G164">
-    <cfRule type="expression" dxfId="102" priority="21">
+    <cfRule type="expression" dxfId="108" priority="21">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23099,82 +23113,82 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A155:G159 C3:G154">
-    <cfRule type="expression" dxfId="100" priority="5">
+    <cfRule type="expression" dxfId="106" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="6">
+    <cfRule type="expression" dxfId="105" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="7">
+    <cfRule type="expression" dxfId="104" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="4">
+    <cfRule type="expression" dxfId="102" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G154">
-    <cfRule type="expression" dxfId="95" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110">
-    <cfRule type="expression" dxfId="94" priority="141">
+    <cfRule type="expression" dxfId="100" priority="141">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="142">
+    <cfRule type="expression" dxfId="99" priority="142">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="92" priority="153">
+    <cfRule type="expression" dxfId="98" priority="153">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="154">
+    <cfRule type="expression" dxfId="97" priority="154">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B128">
-    <cfRule type="expression" dxfId="90" priority="166">
+    <cfRule type="expression" dxfId="96" priority="166">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="167">
+    <cfRule type="expression" dxfId="95" priority="167">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B131">
-    <cfRule type="expression" dxfId="88" priority="180">
+    <cfRule type="expression" dxfId="94" priority="180">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="181">
+    <cfRule type="expression" dxfId="93" priority="181">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="86" priority="194">
+    <cfRule type="expression" dxfId="92" priority="194">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="195">
+    <cfRule type="expression" dxfId="91" priority="195">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="84" priority="208">
+    <cfRule type="expression" dxfId="90" priority="208">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="209">
+    <cfRule type="expression" dxfId="89" priority="209">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B154">
-    <cfRule type="expression" dxfId="82" priority="222">
+    <cfRule type="expression" dxfId="88" priority="222">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="223">
+    <cfRule type="expression" dxfId="87" priority="223">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26809,98 +26823,98 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A153:G157 C3:G152">
-    <cfRule type="expression" dxfId="72" priority="5">
+    <cfRule type="expression" dxfId="78" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="6">
+    <cfRule type="expression" dxfId="77" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="69" priority="3">
+    <cfRule type="expression" dxfId="75" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G152">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110 A121:B123">
-    <cfRule type="expression" dxfId="66" priority="8">
+    <cfRule type="expression" dxfId="72" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="9">
+    <cfRule type="expression" dxfId="71" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="64" priority="11">
+    <cfRule type="expression" dxfId="70" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="12">
+    <cfRule type="expression" dxfId="69" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B119 A124:B127">
-    <cfRule type="expression" dxfId="62" priority="14">
+    <cfRule type="expression" dxfId="68" priority="14">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="15">
+    <cfRule type="expression" dxfId="67" priority="15">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B130">
-    <cfRule type="expression" dxfId="60" priority="17">
+    <cfRule type="expression" dxfId="66" priority="17">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="18">
+    <cfRule type="expression" dxfId="65" priority="18">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B131">
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="64" priority="20">
       <formula>$P138&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="21">
+    <cfRule type="expression" dxfId="63" priority="21">
       <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="56" priority="23">
+    <cfRule type="expression" dxfId="62" priority="23">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="24">
+    <cfRule type="expression" dxfId="61" priority="24">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B152">
-    <cfRule type="expression" dxfId="54" priority="26">
+    <cfRule type="expression" dxfId="60" priority="26">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="27">
+    <cfRule type="expression" dxfId="59" priority="27">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B120">
-    <cfRule type="expression" dxfId="52" priority="240">
+    <cfRule type="expression" dxfId="58" priority="240">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="241">
+    <cfRule type="expression" dxfId="57" priority="241">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="50" priority="256">
+    <cfRule type="expression" dxfId="56" priority="256">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="257">
+    <cfRule type="expression" dxfId="55" priority="257">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27060,10 +27074,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM155"/>
+  <dimension ref="A1:BM153"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27221,7 +27235,7 @@
         <v>42507.201840277776</v>
       </c>
       <c r="E4" s="15" t="str">
-        <f t="shared" ref="E4:E66" si="0">IF(ISEVEN(B4),(B4-1)&amp;"/"&amp;B4,B4&amp;"/"&amp;(B4+1))</f>
+        <f t="shared" ref="E4:E64" si="0">IF(ISEVEN(B4),(B4-1)&amp;"/"&amp;B4,B4&amp;"/"&amp;(B4+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="F4" s="15">
@@ -27261,7 +27275,7 @@
         <v>4009/4010</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" ref="F5:F67" si="1">D5-C5</f>
+        <f t="shared" ref="F5:F65" si="1">D5-C5</f>
         <v>1.2939814812853001E-2</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -27271,8 +27285,8 @@
         <v>7</v>
       </c>
       <c r="K5" s="25">
-        <f>COUNTA(F3:F971)</f>
-        <v>143</v>
+        <f>COUNTA(F3:F969)</f>
+        <v>141</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>8</v>
@@ -27313,7 +27327,7 @@
       </c>
       <c r="K6" s="25">
         <f>K5-SUM(K8:K9)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L6" s="26">
         <v>43.071445221369565</v>
@@ -27352,7 +27366,7 @@
       </c>
       <c r="K7" s="30">
         <f>K6/K5</f>
-        <v>0.94405594405594406</v>
+        <v>0.94326241134751776</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>8</v>
@@ -27390,7 +27404,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="25">
-        <f>COUNTA(G3:G997)</f>
+        <f>COUNTA(G3:G995)</f>
         <v>8</v>
       </c>
       <c r="L8" s="27" t="s">
@@ -28343,16 +28357,16 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B49" s="6">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="C49" s="18">
-        <v>42507.401875000003</v>
+        <v>42507.438946759263</v>
       </c>
       <c r="D49" s="18">
-        <v>42507.433194444442</v>
+        <v>42507.47284722222</v>
       </c>
       <c r="E49" s="15" t="str">
         <f t="shared" si="0"/>
@@ -28360,2140 +28374,2144 @@
       </c>
       <c r="F49" s="15">
         <f t="shared" si="1"/>
-        <v>3.1319444438850041E-2</v>
+        <v>3.3900462956808042E-2</v>
       </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B50" s="6">
-        <v>4011</v>
+        <v>4044</v>
       </c>
       <c r="C50" s="18">
-        <v>42507.407442129632</v>
+        <v>42507.411168981482</v>
       </c>
       <c r="D50" s="18">
-        <v>42507.433194444442</v>
+        <v>42507.441504629627</v>
       </c>
       <c r="E50" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>2.5752314810233656E-2</v>
+        <v>3.0335648145410232E-2</v>
       </c>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="B51" s="6">
-        <v>4012</v>
+        <v>4043</v>
       </c>
       <c r="C51" s="18">
-        <v>42507.438946759263</v>
+        <v>42507.451782407406</v>
       </c>
       <c r="D51" s="18">
-        <v>42507.47284722222</v>
+        <v>42507.484965277778</v>
       </c>
       <c r="E51" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F51" s="15">
         <f t="shared" si="1"/>
-        <v>3.3900462956808042E-2</v>
+        <v>3.3182870371092577E-2</v>
       </c>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B52" s="6">
-        <v>4044</v>
+        <v>4016</v>
       </c>
       <c r="C52" s="18">
-        <v>42507.411168981482</v>
+        <v>42507.426898148151</v>
       </c>
       <c r="D52" s="18">
-        <v>42507.441504629627</v>
+        <v>42507.453263888892</v>
       </c>
       <c r="E52" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4043/4044</v>
+        <v>4015/4016</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
-        <v>3.0335648145410232E-2</v>
+        <v>2.6365740741312038E-2</v>
       </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="B53" s="6">
-        <v>4043</v>
+        <v>4015</v>
       </c>
       <c r="C53" s="18">
-        <v>42507.451782407406</v>
+        <v>42507.463854166665</v>
       </c>
       <c r="D53" s="18">
-        <v>42507.484965277778</v>
+        <v>42507.491840277777</v>
       </c>
       <c r="E53" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4043/4044</v>
+        <v>4015/4016</v>
       </c>
       <c r="F53" s="15">
         <f t="shared" si="1"/>
-        <v>3.3182870371092577E-2</v>
+        <v>2.7986111112113576E-2</v>
       </c>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B54" s="6">
-        <v>4016</v>
+        <v>4020</v>
       </c>
       <c r="C54" s="18">
-        <v>42507.426898148151</v>
+        <v>42507.43476851852</v>
       </c>
       <c r="D54" s="18">
-        <v>42507.453263888892</v>
+        <v>42507.465694444443</v>
       </c>
       <c r="E54" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
-        <v>2.6365740741312038E-2</v>
+        <v>3.0925925922929309E-2</v>
       </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B55" s="6">
-        <v>4015</v>
+        <v>4019</v>
       </c>
       <c r="C55" s="18">
-        <v>42507.463854166665</v>
+        <v>42507.473692129628</v>
       </c>
       <c r="D55" s="18">
-        <v>42507.491840277777</v>
+        <v>42507.51190972222</v>
       </c>
       <c r="E55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="1"/>
-        <v>2.7986111112113576E-2</v>
+        <v>3.8217592591536231E-2</v>
       </c>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B56" s="6">
-        <v>4020</v>
+        <v>4025</v>
       </c>
       <c r="C56" s="18">
-        <v>42507.43476851852</v>
+        <v>42507.448310185187</v>
       </c>
       <c r="D56" s="18">
-        <v>42507.465694444443</v>
+        <v>42507.480451388888</v>
       </c>
       <c r="E56" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
-        <v>3.0925925922929309E-2</v>
+        <v>3.2141203701030463E-2</v>
       </c>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B57" s="6">
-        <v>4019</v>
+        <v>4026</v>
       </c>
       <c r="C57" s="18">
-        <v>42507.473692129628</v>
+        <v>42507.483935185184</v>
       </c>
       <c r="D57" s="18">
-        <v>42507.51190972222</v>
+        <v>42507.516388888886</v>
       </c>
       <c r="E57" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="1"/>
-        <v>3.8217592591536231E-2</v>
+        <v>3.2453703701321501E-2</v>
       </c>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B58" s="6">
-        <v>4025</v>
+        <v>4009</v>
       </c>
       <c r="C58" s="18">
-        <v>42507.448310185187</v>
+        <v>42507.460127314815</v>
       </c>
       <c r="D58" s="18">
-        <v>42507.480451388888</v>
+        <v>42507.48474537037</v>
       </c>
       <c r="E58" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4025/4026</v>
+        <v>4009/4010</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
-        <v>3.2141203701030463E-2</v>
+        <v>2.4618055555038154E-2</v>
       </c>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B59" s="6">
-        <v>4026</v>
+        <v>4010</v>
       </c>
       <c r="C59" s="18">
-        <v>42507.483935185184</v>
+        <v>42507.510775462964</v>
       </c>
       <c r="D59" s="18">
-        <v>42507.516388888886</v>
+        <v>42507.538715277777</v>
       </c>
       <c r="E59" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4025/4026</v>
+        <v>4009/4010</v>
       </c>
       <c r="F59" s="15">
         <f t="shared" si="1"/>
-        <v>3.2453703701321501E-2</v>
-      </c>
-      <c r="G59" s="10"/>
+        <v>2.7939814812270924E-2</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="B60" s="6">
-        <v>4009</v>
+        <v>4024</v>
       </c>
       <c r="C60" s="18">
-        <v>42507.460127314815</v>
+        <v>42507.469814814816</v>
       </c>
       <c r="D60" s="18">
-        <v>42507.48474537037</v>
+        <v>42507.494004629632</v>
       </c>
       <c r="E60" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4009/4010</v>
+        <v>4023/4024</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
-        <v>2.4618055555038154E-2</v>
+        <v>2.4189814816054422E-2</v>
       </c>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B61" s="6">
-        <v>4010</v>
+        <v>4023</v>
       </c>
       <c r="C61" s="18">
-        <v>42507.510775462964</v>
+        <v>42507.505914351852</v>
       </c>
       <c r="D61" s="18">
-        <v>42507.538715277777</v>
+        <v>42507.539583333331</v>
       </c>
       <c r="E61" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4009/4010</v>
+        <v>4023/4024</v>
       </c>
       <c r="F61" s="15">
         <f t="shared" si="1"/>
-        <v>2.7939814812270924E-2</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>787</v>
-      </c>
+        <v>3.3668981479422655E-2</v>
+      </c>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B62" s="6">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="C62" s="18">
-        <v>42507.469814814816</v>
+        <v>42507.475972222222</v>
       </c>
       <c r="D62" s="18">
-        <v>42507.494004629632</v>
+        <v>42507.489803240744</v>
       </c>
       <c r="E62" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
-        <v>2.4189814816054422E-2</v>
-      </c>
-      <c r="G62" s="10"/>
+        <v>1.3831018521159422E-2</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B63" s="6">
-        <v>4023</v>
+        <v>4012</v>
       </c>
       <c r="C63" s="18">
-        <v>42507.505914351852</v>
+        <v>42507.517280092594</v>
       </c>
       <c r="D63" s="18">
-        <v>42507.539583333331</v>
+        <v>42507.551215277781</v>
       </c>
       <c r="E63" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F63" s="15">
         <f t="shared" si="1"/>
-        <v>3.3668981479422655E-2</v>
+        <v>3.3935185187146999E-2</v>
       </c>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B64" s="6">
-        <v>4011</v>
+        <v>4044</v>
       </c>
       <c r="C64" s="18">
-        <v>42507.475972222222</v>
+        <v>42507.489687499998</v>
       </c>
       <c r="D64" s="18">
-        <v>42507.489803240744</v>
+        <v>42507.51766203704</v>
       </c>
       <c r="E64" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>1.3831018521159422E-2</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>1956</v>
-      </c>
+        <v>2.7974537042609882E-2</v>
+      </c>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B65" s="6">
-        <v>4012</v>
+        <v>4043</v>
       </c>
       <c r="C65" s="18">
-        <v>42507.517280092594</v>
+        <v>42507.526678240742</v>
       </c>
       <c r="D65" s="18">
-        <v>42507.551215277781</v>
+        <v>42507.556759259256</v>
       </c>
       <c r="E65" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4011/4012</v>
+        <f t="shared" ref="E65:E127" si="2">IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
+        <v>4043/4044</v>
       </c>
       <c r="F65" s="15">
         <f t="shared" si="1"/>
-        <v>3.3935185187146999E-2</v>
+        <v>3.0081018514465541E-2</v>
       </c>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B66" s="6">
-        <v>4044</v>
+        <v>4016</v>
       </c>
       <c r="C66" s="18">
-        <v>42507.489687499998</v>
+        <v>42507.497291666667</v>
       </c>
       <c r="D66" s="18">
-        <v>42507.51766203704</v>
+        <v>42507.527685185189</v>
       </c>
       <c r="E66" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4043/4044</v>
+        <f t="shared" si="2"/>
+        <v>4015/4016</v>
       </c>
       <c r="F66" s="15">
-        <f t="shared" si="1"/>
-        <v>2.7974537042609882E-2</v>
+        <f t="shared" ref="F66:F128" si="3">D66-C66</f>
+        <v>3.0393518522032537E-2</v>
       </c>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B67" s="6">
-        <v>4043</v>
+        <v>4015</v>
       </c>
       <c r="C67" s="18">
-        <v>42507.526678240742</v>
+        <v>42507.536446759259</v>
       </c>
       <c r="D67" s="18">
-        <v>42507.556759259256</v>
+        <v>42507.570011574076</v>
       </c>
       <c r="E67" s="15" t="str">
-        <f t="shared" ref="E67:E129" si="2">IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
-        <v>4043/4044</v>
+        <f t="shared" si="2"/>
+        <v>4015/4016</v>
       </c>
       <c r="F67" s="15">
-        <f t="shared" si="1"/>
-        <v>3.0081018514465541E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.3564814817509614E-2</v>
       </c>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B68" s="6">
-        <v>4016</v>
+        <v>4020</v>
       </c>
       <c r="C68" s="18">
-        <v>42507.497291666667</v>
+        <v>42507.515081018515</v>
       </c>
       <c r="D68" s="18">
-        <v>42507.527685185189</v>
+        <v>42507.546689814815</v>
       </c>
       <c r="E68" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F68" s="15">
-        <f t="shared" ref="F68:F130" si="3">D68-C68</f>
-        <v>3.0393518522032537E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.160879630013369E-2</v>
       </c>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B69" s="6">
-        <v>4015</v>
+        <v>4019</v>
       </c>
       <c r="C69" s="18">
-        <v>42507.536446759259</v>
+        <v>42507.549247685187</v>
       </c>
       <c r="D69" s="18">
-        <v>42507.570011574076</v>
+        <v>42507.577986111108</v>
       </c>
       <c r="E69" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F69" s="15">
         <f t="shared" si="3"/>
-        <v>3.3564814817509614E-2</v>
+        <v>2.8738425920892041E-2</v>
       </c>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B70" s="6">
-        <v>4020</v>
+        <v>4025</v>
       </c>
       <c r="C70" s="18">
-        <v>42507.515081018515</v>
+        <v>42507.518969907411</v>
       </c>
       <c r="D70" s="18">
-        <v>42507.546689814815</v>
+        <v>42507.549340277779</v>
       </c>
       <c r="E70" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="3"/>
-        <v>3.160879630013369E-2</v>
+        <v>3.0370370368473232E-2</v>
       </c>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="B71" s="6">
-        <v>4019</v>
+        <v>4026</v>
       </c>
       <c r="C71" s="18">
-        <v>42507.549247685187</v>
+        <v>42507.554710648146</v>
       </c>
       <c r="D71" s="18">
-        <v>42507.577986111108</v>
+        <v>42507.586030092592</v>
       </c>
       <c r="E71" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F71" s="15">
         <f t="shared" si="3"/>
-        <v>2.8738425920892041E-2</v>
+        <v>3.1319444446125999E-2</v>
       </c>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B72" s="6">
-        <v>4025</v>
+        <v>4042</v>
       </c>
       <c r="C72" s="18">
-        <v>42507.518969907411</v>
+        <v>42507.531423611108</v>
       </c>
       <c r="D72" s="18">
-        <v>42507.549340277779</v>
+        <v>42507.558553240742</v>
       </c>
       <c r="E72" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4041/4042</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="3"/>
-        <v>3.0370370368473232E-2</v>
+        <v>2.7129629634146113E-2</v>
       </c>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B73" s="6">
-        <v>4026</v>
+        <v>4041</v>
       </c>
       <c r="C73" s="18">
-        <v>42507.554710648146</v>
+        <v>42507.566030092596</v>
       </c>
       <c r="D73" s="18">
-        <v>42507.586030092592</v>
+        <v>42507.595925925925</v>
       </c>
       <c r="E73" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4041/4042</v>
       </c>
       <c r="F73" s="15">
         <f t="shared" si="3"/>
-        <v>3.1319444446125999E-2</v>
+        <v>2.9895833329646848E-2</v>
       </c>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B74" s="6">
-        <v>4042</v>
+        <v>4024</v>
       </c>
       <c r="C74" s="18">
-        <v>42507.531423611108</v>
+        <v>42507.542951388888</v>
       </c>
       <c r="D74" s="18">
-        <v>42507.558553240742</v>
+        <v>42507.574374999997</v>
       </c>
       <c r="E74" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4041/4042</v>
+        <v>4023/4024</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="3"/>
-        <v>2.7129629634146113E-2</v>
+        <v>3.142361110803904E-2</v>
       </c>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B75" s="6">
-        <v>4041</v>
+        <v>4023</v>
       </c>
       <c r="C75" s="18">
-        <v>42507.566030092596</v>
+        <v>42507.576793981483</v>
       </c>
       <c r="D75" s="18">
-        <v>42507.595925925925</v>
+        <v>42507.606574074074</v>
       </c>
       <c r="E75" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4041/4042</v>
+        <v>4023/4024</v>
       </c>
       <c r="F75" s="15">
         <f t="shared" si="3"/>
-        <v>2.9895833329646848E-2</v>
+        <v>2.9780092590954155E-2</v>
       </c>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B76" s="6">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="C76" s="18">
-        <v>42507.542951388888</v>
+        <v>42507.553206018521</v>
       </c>
       <c r="D76" s="18">
-        <v>42507.574374999997</v>
+        <v>42507.577673611115</v>
       </c>
       <c r="E76" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="3"/>
-        <v>3.142361110803904E-2</v>
+        <v>2.4467592593282461E-2</v>
       </c>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B77" s="6">
-        <v>4023</v>
+        <v>4012</v>
       </c>
       <c r="C77" s="18">
-        <v>42507.576793981483</v>
+        <v>42507.590138888889</v>
       </c>
       <c r="D77" s="18">
-        <v>42507.606574074074</v>
+        <v>42507.616620370369</v>
       </c>
       <c r="E77" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F77" s="15">
         <f t="shared" si="3"/>
-        <v>2.9780092590954155E-2</v>
+        <v>2.6481481480004732E-2</v>
       </c>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B78" s="6">
-        <v>4011</v>
+        <v>4044</v>
       </c>
       <c r="C78" s="18">
-        <v>42507.553206018521</v>
+        <v>42507.560057870367</v>
       </c>
       <c r="D78" s="18">
-        <v>42507.577673611115</v>
+        <v>42507.587430555555</v>
       </c>
       <c r="E78" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="3"/>
-        <v>2.4467592593282461E-2</v>
+        <v>2.7372685188311152E-2</v>
       </c>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B79" s="6">
-        <v>4012</v>
+        <v>4043</v>
       </c>
       <c r="C79" s="18">
-        <v>42507.590138888889</v>
+        <v>42507.599074074074</v>
       </c>
       <c r="D79" s="18">
-        <v>42507.616620370369</v>
+        <v>42507.627291666664</v>
       </c>
       <c r="E79" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F79" s="15">
         <f t="shared" si="3"/>
-        <v>2.6481481480004732E-2</v>
+        <v>2.8217592589498963E-2</v>
       </c>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B80" s="6">
-        <v>4044</v>
+        <v>4016</v>
       </c>
       <c r="C80" s="18">
-        <v>42507.560057870367</v>
+        <v>42507.573275462964</v>
       </c>
       <c r="D80" s="18">
-        <v>42507.587430555555</v>
+        <v>42507.599328703705</v>
       </c>
       <c r="E80" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4043/4044</v>
+        <v>4015/4016</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="3"/>
-        <v>2.7372685188311152E-2</v>
+        <v>2.6053240741021E-2</v>
       </c>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B81" s="6">
-        <v>4043</v>
+        <v>4015</v>
       </c>
       <c r="C81" s="18">
-        <v>42507.599074074074</v>
+        <v>42507.60833333333</v>
       </c>
       <c r="D81" s="18">
-        <v>42507.627291666664</v>
+        <v>42507.638333333336</v>
       </c>
       <c r="E81" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4043/4044</v>
+        <v>4015/4016</v>
       </c>
       <c r="F81" s="15">
         <f t="shared" si="3"/>
-        <v>2.8217592589498963E-2</v>
+        <v>3.0000000006111804E-2</v>
       </c>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="B82" s="6">
-        <v>4016</v>
+        <v>4020</v>
       </c>
       <c r="C82" s="18">
-        <v>42507.573275462964</v>
+        <v>42507.580925925926</v>
       </c>
       <c r="D82" s="18">
-        <v>42507.599328703705</v>
+        <v>42507.607939814814</v>
       </c>
       <c r="E82" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="3"/>
-        <v>2.6053240741021E-2</v>
+        <v>2.7013888888177462E-2</v>
       </c>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="B83" s="6">
-        <v>4015</v>
+        <v>4019</v>
       </c>
       <c r="C83" s="18">
-        <v>42507.60833333333</v>
+        <v>42507.619421296295</v>
       </c>
       <c r="D83" s="18">
-        <v>42507.638333333336</v>
+        <v>42507.647951388892</v>
       </c>
       <c r="E83" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F83" s="15">
         <f t="shared" si="3"/>
-        <v>3.0000000006111804E-2</v>
+        <v>2.8530092597065959E-2</v>
       </c>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B84" s="6">
-        <v>4020</v>
+        <v>4025</v>
       </c>
       <c r="C84" s="18">
-        <v>42507.580925925926</v>
+        <v>42507.589143518519</v>
       </c>
       <c r="D84" s="18">
-        <v>42507.607939814814</v>
+        <v>42507.619363425925</v>
       </c>
       <c r="E84" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F84" s="15">
         <f t="shared" si="3"/>
-        <v>2.7013888888177462E-2</v>
+        <v>3.0219907406717539E-2</v>
       </c>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B85" s="6">
-        <v>4019</v>
+        <v>4026</v>
       </c>
       <c r="C85" s="18">
-        <v>42507.619421296295</v>
+        <v>42507.628182870372</v>
       </c>
       <c r="D85" s="18">
-        <v>42507.647951388892</v>
+        <v>42507.659212962964</v>
       </c>
       <c r="E85" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F85" s="15">
         <f t="shared" si="3"/>
-        <v>2.8530092597065959E-2</v>
+        <v>3.1030092592118308E-2</v>
       </c>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="B86" s="6">
-        <v>4025</v>
+        <v>4042</v>
       </c>
       <c r="C86" s="18">
-        <v>42507.589143518519</v>
+        <v>42507.604872685188</v>
       </c>
       <c r="D86" s="18">
-        <v>42507.619363425925</v>
+        <v>42507.629201388889</v>
       </c>
       <c r="E86" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4041/4042</v>
       </c>
       <c r="F86" s="15">
         <f t="shared" si="3"/>
-        <v>3.0219907406717539E-2</v>
+        <v>2.4328703701030463E-2</v>
       </c>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="B87" s="6">
-        <v>4026</v>
+        <v>4041</v>
       </c>
       <c r="C87" s="18">
-        <v>42507.628182870372</v>
+        <v>42507.641863425924</v>
       </c>
       <c r="D87" s="18">
-        <v>42507.659212962964</v>
+        <v>42507.668356481481</v>
       </c>
       <c r="E87" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4041/4042</v>
       </c>
       <c r="F87" s="15">
         <f t="shared" si="3"/>
-        <v>3.1030092592118308E-2</v>
+        <v>2.6493055556784384E-2</v>
       </c>
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="B88" s="6">
-        <v>4042</v>
+        <v>4024</v>
       </c>
       <c r="C88" s="18">
-        <v>42507.604872685188</v>
+        <v>42507.609629629631</v>
       </c>
       <c r="D88" s="18">
-        <v>42507.629201388889</v>
+        <v>42507.639293981483</v>
       </c>
       <c r="E88" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4041/4042</v>
+        <v>4023/4024</v>
       </c>
       <c r="F88" s="15">
         <f t="shared" si="3"/>
-        <v>2.4328703701030463E-2</v>
+        <v>2.9664351852261461E-2</v>
       </c>
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="B89" s="6">
-        <v>4041</v>
+        <v>4023</v>
       </c>
       <c r="C89" s="18">
-        <v>42507.641863425924</v>
+        <v>42507.6481712963</v>
       </c>
       <c r="D89" s="18">
-        <v>42507.668356481481</v>
+        <v>42507.6794212963</v>
       </c>
       <c r="E89" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4041/4042</v>
+        <v>4023/4024</v>
       </c>
       <c r="F89" s="15">
         <f t="shared" si="3"/>
-        <v>2.6493055556784384E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="B90" s="6">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="C90" s="18">
-        <v>42507.609629629631</v>
+        <v>42507.622442129628</v>
       </c>
       <c r="D90" s="18">
-        <v>42507.639293981483</v>
+        <v>42507.650462962964</v>
       </c>
       <c r="E90" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F90" s="15">
         <f t="shared" si="3"/>
-        <v>2.9664351852261461E-2</v>
+        <v>2.8020833335176576E-2</v>
       </c>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="B91" s="6">
-        <v>4023</v>
+        <v>4012</v>
       </c>
       <c r="C91" s="18">
-        <v>42507.6481712963</v>
+        <v>42507.662233796298</v>
       </c>
       <c r="D91" s="18">
-        <v>42507.6794212963</v>
+        <v>42507.692974537036</v>
       </c>
       <c r="E91" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F91" s="15">
         <f t="shared" si="3"/>
-        <v>3.125E-2</v>
+        <v>3.0740740738110617E-2</v>
       </c>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="B92" s="6">
-        <v>4011</v>
+        <v>4044</v>
       </c>
       <c r="C92" s="18">
-        <v>42507.622442129628</v>
+        <v>42507.630497685182</v>
       </c>
       <c r="D92" s="18">
-        <v>42507.650462962964</v>
+        <v>42507.660821759258</v>
       </c>
       <c r="E92" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F92" s="15">
         <f t="shared" si="3"/>
-        <v>2.8020833335176576E-2</v>
+        <v>3.0324074075906537E-2</v>
       </c>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="B93" s="6">
-        <v>4012</v>
+        <v>4043</v>
       </c>
       <c r="C93" s="18">
-        <v>42507.662233796298</v>
+        <v>42507.671990740739</v>
       </c>
       <c r="D93" s="18">
-        <v>42507.692974537036</v>
+        <v>42507.702222222222</v>
       </c>
       <c r="E93" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F93" s="15">
         <f t="shared" si="3"/>
-        <v>3.0740740738110617E-2</v>
+        <v>3.0231481483497191E-2</v>
       </c>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="B94" s="6">
-        <v>4044</v>
+        <v>4016</v>
       </c>
       <c r="C94" s="18">
-        <v>42507.630497685182</v>
+        <v>42507.642233796294</v>
       </c>
       <c r="D94" s="18">
-        <v>42507.660821759258</v>
+        <v>42507.671261574076</v>
       </c>
       <c r="E94" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4043/4044</v>
+        <v>4015/4016</v>
       </c>
       <c r="F94" s="15">
         <f t="shared" si="3"/>
-        <v>3.0324074075906537E-2</v>
+        <v>2.902777778217569E-2</v>
       </c>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="B95" s="6">
-        <v>4043</v>
+        <v>4015</v>
       </c>
       <c r="C95" s="18">
-        <v>42507.671990740739</v>
+        <v>42507.681527777779</v>
       </c>
       <c r="D95" s="18">
-        <v>42507.702222222222</v>
+        <v>42507.71193287037</v>
       </c>
       <c r="E95" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4043/4044</v>
+        <v>4015/4016</v>
       </c>
       <c r="F95" s="15">
         <f t="shared" si="3"/>
-        <v>3.0231481483497191E-2</v>
+        <v>3.0405092591536231E-2</v>
       </c>
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="B96" s="6">
-        <v>4016</v>
+        <v>4020</v>
       </c>
       <c r="C96" s="18">
-        <v>42507.642233796294</v>
+        <v>42507.654560185183</v>
       </c>
       <c r="D96" s="18">
-        <v>42507.671261574076</v>
+        <v>42507.682326388887</v>
       </c>
       <c r="E96" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F96" s="15">
         <f t="shared" si="3"/>
-        <v>2.902777778217569E-2</v>
+        <v>2.7766203704231884E-2</v>
       </c>
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="B97" s="6">
-        <v>4015</v>
+        <v>4019</v>
       </c>
       <c r="C97" s="18">
-        <v>42507.681527777779</v>
+        <v>42507.691608796296</v>
       </c>
       <c r="D97" s="18">
-        <v>42507.71193287037</v>
+        <v>42507.721967592595</v>
       </c>
       <c r="E97" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F97" s="15">
         <f t="shared" si="3"/>
-        <v>3.0405092591536231E-2</v>
+        <v>3.0358796298969537E-2</v>
       </c>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="B98" s="6">
-        <v>4020</v>
+        <v>4025</v>
       </c>
       <c r="C98" s="18">
-        <v>42507.654560185183</v>
+        <v>42507.666018518517</v>
       </c>
       <c r="D98" s="18">
-        <v>42507.682326388887</v>
+        <v>42507.691620370373</v>
       </c>
       <c r="E98" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F98" s="15">
         <f t="shared" si="3"/>
-        <v>2.7766203704231884E-2</v>
+        <v>2.5601851855753921E-2</v>
       </c>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="B99" s="6">
-        <v>4019</v>
+        <v>4026</v>
       </c>
       <c r="C99" s="18">
-        <v>42507.691608796296</v>
+        <v>42507.700243055559</v>
       </c>
       <c r="D99" s="18">
-        <v>42507.721967592595</v>
+        <v>42507.73300925926</v>
       </c>
       <c r="E99" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F99" s="15">
         <f t="shared" si="3"/>
-        <v>3.0358796298969537E-2</v>
+        <v>3.276620370161254E-2</v>
       </c>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B100" s="6">
-        <v>4025</v>
+        <v>4042</v>
       </c>
       <c r="C100" s="18">
-        <v>42507.666018518517</v>
+        <v>42507.674571759257</v>
       </c>
       <c r="D100" s="18">
-        <v>42507.691620370373</v>
+        <v>42507.702592592592</v>
       </c>
       <c r="E100" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4041/4042</v>
       </c>
       <c r="F100" s="15">
         <f t="shared" si="3"/>
-        <v>2.5601851855753921E-2</v>
+        <v>2.8020833335176576E-2</v>
       </c>
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="B101" s="6">
-        <v>4026</v>
+        <v>4041</v>
       </c>
       <c r="C101" s="18">
-        <v>42507.700243055559</v>
+        <v>42507.713738425926</v>
       </c>
       <c r="D101" s="18">
-        <v>42507.73300925926</v>
+        <v>42507.745729166665</v>
       </c>
       <c r="E101" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4041/4042</v>
       </c>
       <c r="F101" s="15">
         <f t="shared" si="3"/>
-        <v>3.276620370161254E-2</v>
+        <v>3.199074073927477E-2</v>
       </c>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B102" s="6">
-        <v>4042</v>
+        <v>4024</v>
       </c>
       <c r="C102" s="18">
-        <v>42507.674571759257</v>
+        <v>42507.696145833332</v>
       </c>
       <c r="D102" s="18">
-        <v>42507.702592592592</v>
+        <v>42507.720509259256</v>
       </c>
       <c r="E102" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4041/4042</v>
+        <v>4023/4024</v>
       </c>
       <c r="F102" s="15">
-        <f t="shared" si="3"/>
-        <v>2.8020833335176576E-2</v>
-      </c>
-      <c r="G102" s="10"/>
+        <v>3.1863425923802424E-2</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B103" s="6">
-        <v>4041</v>
+        <v>4023</v>
       </c>
       <c r="C103" s="18">
-        <v>42507.713738425926</v>
+        <v>42507.726759259262</v>
       </c>
       <c r="D103" s="18">
-        <v>42507.745729166665</v>
+        <v>42507.752997685187</v>
       </c>
       <c r="E103" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4041/4042</v>
+        <v>4023/4024</v>
       </c>
       <c r="F103" s="15">
         <f t="shared" si="3"/>
-        <v>3.199074073927477E-2</v>
+        <v>2.6238425925839692E-2</v>
       </c>
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B104" s="6">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="C104" s="18">
-        <v>42507.696145833332</v>
+        <v>42507.698217592595</v>
       </c>
       <c r="D104" s="18">
-        <v>42507.720509259256</v>
+        <v>42507.724293981482</v>
       </c>
       <c r="E104" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F104" s="15">
-        <v>3.1863425923802424E-2</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>1953</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>2.6076388887304347E-2</v>
+      </c>
+      <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B105" s="6">
-        <v>4023</v>
+        <v>4012</v>
       </c>
       <c r="C105" s="18">
-        <v>42507.726759259262</v>
+        <v>42507.729907407411</v>
       </c>
       <c r="D105" s="18">
-        <v>42507.752997685187</v>
+        <v>42507.762384259258</v>
       </c>
       <c r="E105" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F105" s="15">
         <f t="shared" si="3"/>
-        <v>2.6238425925839692E-2</v>
+        <v>3.2476851847604848E-2</v>
       </c>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="B106" s="6">
-        <v>4011</v>
+        <v>4044</v>
       </c>
       <c r="C106" s="18">
-        <v>42507.698217592595</v>
+        <v>42507.704641203702</v>
       </c>
       <c r="D106" s="18">
-        <v>42507.724293981482</v>
+        <v>42507.73537037037</v>
       </c>
       <c r="E106" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F106" s="15">
         <f t="shared" si="3"/>
-        <v>2.6076388887304347E-2</v>
+        <v>3.0729166668606922E-2</v>
       </c>
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="B107" s="6">
-        <v>4012</v>
+        <v>4043</v>
       </c>
       <c r="C107" s="18">
-        <v>42507.729907407411</v>
+        <v>42507.742754629631</v>
       </c>
       <c r="D107" s="18">
-        <v>42507.762384259258</v>
+        <v>42507.773368055554</v>
       </c>
       <c r="E107" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <v>4043/4044</v>
       </c>
       <c r="F107" s="15">
         <f t="shared" si="3"/>
-        <v>3.2476851847604848E-2</v>
+        <v>3.0613425922638271E-2</v>
       </c>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B108" s="6">
-        <v>4044</v>
+        <v>4016</v>
       </c>
       <c r="C108" s="18">
-        <v>42507.704641203702</v>
+        <v>42507.715671296297</v>
       </c>
       <c r="D108" s="18">
-        <v>42507.73537037037</v>
+        <v>42507.744131944448</v>
       </c>
       <c r="E108" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4043/4044</v>
+        <v>4015/4016</v>
       </c>
       <c r="F108" s="15">
         <f t="shared" si="3"/>
-        <v>3.0729166668606922E-2</v>
+        <v>2.846064815093996E-2</v>
       </c>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B109" s="6">
-        <v>4043</v>
+        <v>4015</v>
       </c>
       <c r="C109" s="18">
-        <v>42507.742754629631</v>
+        <v>42507.749988425923</v>
       </c>
       <c r="D109" s="18">
-        <v>42507.773368055554</v>
+        <v>42507.783009259256</v>
       </c>
       <c r="E109" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4043/4044</v>
+        <v>4015/4016</v>
       </c>
       <c r="F109" s="15">
         <f t="shared" si="3"/>
-        <v>3.0613425922638271E-2</v>
+        <v>3.3020833332557231E-2</v>
       </c>
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B110" s="6">
-        <v>4016</v>
+        <v>4020</v>
       </c>
       <c r="C110" s="18">
-        <v>42507.715671296297</v>
+        <v>42507.72483796296</v>
       </c>
       <c r="D110" s="18">
-        <v>42507.744131944448</v>
+        <v>42507.753738425927</v>
       </c>
       <c r="E110" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F110" s="15">
         <f t="shared" si="3"/>
-        <v>2.846064815093996E-2</v>
+        <v>2.8900462966703344E-2</v>
       </c>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B111" s="6">
-        <v>4015</v>
+        <v>4019</v>
       </c>
       <c r="C111" s="18">
-        <v>42507.749988425923</v>
+        <v>42507.764872685184</v>
       </c>
       <c r="D111" s="18">
-        <v>42507.783009259256</v>
+        <v>42507.793969907405</v>
       </c>
       <c r="E111" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4019/4020</v>
       </c>
       <c r="F111" s="15">
         <f t="shared" si="3"/>
-        <v>3.3020833332557231E-2</v>
+        <v>2.9097222221025731E-2</v>
       </c>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B112" s="6">
-        <v>4020</v>
+        <v>4025</v>
       </c>
       <c r="C112" s="18">
-        <v>42507.72483796296</v>
+        <v>42507.736747685187</v>
       </c>
       <c r="D112" s="18">
-        <v>42507.753738425927</v>
+        <v>42507.765451388892</v>
       </c>
       <c r="E112" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F112" s="15">
         <f t="shared" si="3"/>
-        <v>2.8900462966703344E-2</v>
+        <v>2.8703703705104999E-2</v>
       </c>
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B113" s="6">
-        <v>4019</v>
+        <v>4026</v>
       </c>
       <c r="C113" s="18">
-        <v>42507.764872685184</v>
+        <v>42507.776342592595</v>
       </c>
       <c r="D113" s="18">
-        <v>42507.793969907405</v>
+        <v>42507.80431712963</v>
       </c>
       <c r="E113" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4019/4020</v>
+        <v>4025/4026</v>
       </c>
       <c r="F113" s="15">
         <f t="shared" si="3"/>
-        <v>2.9097222221025731E-2</v>
+        <v>2.7974537035333924E-2</v>
       </c>
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B114" s="6">
-        <v>4025</v>
+        <v>4042</v>
       </c>
       <c r="C114" s="18">
-        <v>42507.736747685187</v>
+        <v>42507.749097222222</v>
       </c>
       <c r="D114" s="18">
-        <v>42507.765451388892</v>
+        <v>42507.775023148148</v>
       </c>
       <c r="E114" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4041/4042</v>
       </c>
       <c r="F114" s="15">
         <f t="shared" si="3"/>
-        <v>2.8703703705104999E-2</v>
+        <v>2.5925925925548654E-2</v>
       </c>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B115" s="6">
-        <v>4026</v>
+        <v>4041</v>
       </c>
       <c r="C115" s="18">
-        <v>42507.776342592595</v>
+        <v>42507.786296296297</v>
       </c>
       <c r="D115" s="18">
-        <v>42507.80431712963</v>
+        <v>42507.814722222225</v>
       </c>
       <c r="E115" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4041/4042</v>
       </c>
       <c r="F115" s="15">
         <f t="shared" si="3"/>
-        <v>2.7974537035333924E-2</v>
+        <v>2.842592592787696E-2</v>
       </c>
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B116" s="6">
-        <v>4042</v>
+        <v>4024</v>
       </c>
       <c r="C116" s="18">
-        <v>42507.749097222222</v>
+        <v>42507.760821759257</v>
       </c>
       <c r="D116" s="18">
-        <v>42507.775023148148</v>
+        <v>42507.785370370373</v>
       </c>
       <c r="E116" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4041/4042</v>
+        <v>4023/4024</v>
       </c>
       <c r="F116" s="15">
         <f t="shared" si="3"/>
-        <v>2.5925925925548654E-2</v>
+        <v>2.4548611116188113E-2</v>
       </c>
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="B117" s="6">
-        <v>4041</v>
+        <v>4023</v>
       </c>
       <c r="C117" s="18">
-        <v>42507.786296296297</v>
+        <v>42507.791851851849</v>
       </c>
       <c r="D117" s="18">
-        <v>42507.814722222225</v>
+        <v>42507.825798611113</v>
       </c>
       <c r="E117" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4041/4042</v>
+        <v>4023/4024</v>
       </c>
       <c r="F117" s="15">
         <f t="shared" si="3"/>
-        <v>2.842592592787696E-2</v>
+        <v>3.3946759263926651E-2</v>
       </c>
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B118" s="6">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="C118" s="18">
-        <v>42507.760821759257</v>
+        <v>42507.767280092594</v>
       </c>
       <c r="D118" s="18">
-        <v>42507.785370370373</v>
+        <v>42507.79614583333</v>
       </c>
       <c r="E118" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F118" s="15">
         <f t="shared" si="3"/>
-        <v>2.4548611116188113E-2</v>
+        <v>2.8865740736364387E-2</v>
       </c>
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="B119" s="6">
-        <v>4023</v>
+        <v>4012</v>
       </c>
       <c r="C119" s="18">
-        <v>42507.791851851849</v>
+        <v>42507.801203703704</v>
       </c>
       <c r="D119" s="18">
-        <v>42507.825798611113</v>
+        <v>42507.836631944447</v>
       </c>
       <c r="E119" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F119" s="15">
-        <f t="shared" si="3"/>
-        <v>3.3946759263926651E-2</v>
+        <v>3.145833333110204E-2</v>
       </c>
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B120" s="6">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="C120" s="18">
-        <v>42507.767280092594</v>
+        <v>42507.786932870367</v>
       </c>
       <c r="D120" s="18">
-        <v>42507.79614583333</v>
+        <v>42507.816736111112</v>
       </c>
       <c r="E120" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <v>4015/4016</v>
       </c>
       <c r="F120" s="15">
         <f t="shared" si="3"/>
-        <v>2.8865740736364387E-2</v>
+        <v>2.980324074451346E-2</v>
       </c>
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B121" s="6">
-        <v>4012</v>
+        <v>4015</v>
       </c>
       <c r="C121" s="18">
-        <v>42507.801203703704</v>
+        <v>42507.824432870373</v>
       </c>
       <c r="D121" s="18">
-        <v>42507.836631944447</v>
+        <v>42507.863321759258</v>
       </c>
       <c r="E121" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <v>4015/4016</v>
       </c>
       <c r="F121" s="15">
-        <v>3.145833333110204E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.8888888884685002E-2</v>
       </c>
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B122" s="6">
-        <v>4016</v>
+        <v>4025</v>
       </c>
       <c r="C122" s="18">
-        <v>42507.786932870367</v>
+        <v>42507.810034722221</v>
       </c>
       <c r="D122" s="18">
-        <v>42507.816736111112</v>
+        <v>42507.837314814817</v>
       </c>
       <c r="E122" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4025/4026</v>
       </c>
       <c r="F122" s="15">
         <f t="shared" si="3"/>
-        <v>2.980324074451346E-2</v>
+        <v>2.7280092595901806E-2</v>
       </c>
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="B123" s="6">
-        <v>4015</v>
+        <v>4026</v>
       </c>
       <c r="C123" s="18">
-        <v>42507.824432870373</v>
+        <v>42507.848402777781</v>
       </c>
       <c r="D123" s="18">
-        <v>42507.863321759258</v>
+        <v>42507.895208333335</v>
       </c>
       <c r="E123" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4015/4016</v>
+        <v>4025/4026</v>
       </c>
       <c r="F123" s="15">
         <f t="shared" si="3"/>
-        <v>3.8888888884685002E-2</v>
+        <v>4.6805555553874001E-2</v>
       </c>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="B124" s="6">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="C124" s="18">
-        <v>42507.810034722221</v>
+        <v>42507.830543981479</v>
       </c>
       <c r="D124" s="18">
-        <v>42507.837314814817</v>
+        <v>42507.858078703706</v>
       </c>
       <c r="E124" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4023/4024</v>
       </c>
       <c r="F124" s="15">
         <f t="shared" si="3"/>
-        <v>2.7280092595901806E-2</v>
+        <v>2.7534722226846498E-2</v>
       </c>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B125" s="6">
-        <v>4026</v>
+        <v>4023</v>
       </c>
       <c r="C125" s="18">
-        <v>42507.848402777781</v>
+        <v>42507.866851851853</v>
       </c>
       <c r="D125" s="18">
-        <v>42507.895208333335</v>
+        <v>42507.910636574074</v>
       </c>
       <c r="E125" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4025/4026</v>
+        <v>4023/4024</v>
       </c>
       <c r="F125" s="15">
         <f t="shared" si="3"/>
-        <v>4.6805555553874001E-2</v>
+        <v>4.3784722220152617E-2</v>
       </c>
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B126" s="6">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="C126" s="18">
-        <v>42507.830543981479</v>
+        <v>42507.841006944444</v>
       </c>
       <c r="D126" s="18">
-        <v>42507.858078703706</v>
+        <v>42507.880046296297</v>
       </c>
       <c r="E126" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F126" s="15">
         <f t="shared" si="3"/>
-        <v>2.7534722226846498E-2</v>
+        <v>3.9039351853716653E-2</v>
       </c>
       <c r="G126" s="10"/>
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B127" s="6">
-        <v>4023</v>
+        <v>4012</v>
       </c>
       <c r="C127" s="18">
-        <v>42507.866851851853</v>
+        <v>42507.891342592593</v>
       </c>
       <c r="D127" s="18">
-        <v>42507.910636574074</v>
+        <v>42507.923680555556</v>
       </c>
       <c r="E127" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F127" s="15">
         <f t="shared" si="3"/>
-        <v>4.3784722220152617E-2</v>
+        <v>3.2337962962628808E-2</v>
       </c>
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B128" s="6">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="C128" s="18">
-        <v>42507.841006944444</v>
+        <v>42507.866909722223</v>
       </c>
       <c r="D128" s="18">
-        <v>42507.880046296297</v>
+        <v>42507.902662037035</v>
       </c>
       <c r="E128" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <f t="shared" ref="E128:E131" si="4">IF(ISEVEN(B128),(B128-1)&amp;"/"&amp;B128,B128&amp;"/"&amp;(B128+1))</f>
+        <v>4015/4016</v>
       </c>
       <c r="F128" s="15">
         <f t="shared" si="3"/>
-        <v>3.9039351853716653E-2</v>
+        <v>3.5752314812270924E-2</v>
       </c>
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B129" s="6">
-        <v>4012</v>
+        <v>4015</v>
       </c>
       <c r="C129" s="18">
-        <v>42507.891342592593</v>
+        <v>42507.910416666666</v>
       </c>
       <c r="D129" s="18">
-        <v>42507.923680555556</v>
+        <v>42507.9453587963</v>
       </c>
       <c r="E129" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>4011/4012</v>
+        <f t="shared" si="4"/>
+        <v>4015/4016</v>
       </c>
       <c r="F129" s="15">
-        <f t="shared" si="3"/>
-        <v>3.2337962962628808E-2</v>
+        <v>4.0034722216660157E-2</v>
       </c>
       <c r="G129" s="10"/>
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B130" s="6">
-        <v>4016</v>
+        <v>4025</v>
       </c>
       <c r="C130" s="18">
-        <v>42507.866909722223</v>
+        <v>42507.90347222222</v>
       </c>
       <c r="D130" s="18">
-        <v>42507.902662037035</v>
+        <v>42507.928842592592</v>
       </c>
       <c r="E130" s="15" t="str">
-        <f t="shared" ref="E130:E134" si="4">IF(ISEVEN(B130),(B130-1)&amp;"/"&amp;B130,B130&amp;"/"&amp;(B130+1))</f>
-        <v>4015/4016</v>
+        <f t="shared" si="4"/>
+        <v>4025/4026</v>
       </c>
       <c r="F130" s="15">
-        <f t="shared" si="3"/>
-        <v>3.5752314812270924E-2</v>
+        <f t="shared" ref="F130:F131" si="5">D130-C130</f>
+        <v>2.5370370371092577E-2</v>
       </c>
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B131" s="6">
-        <v>4015</v>
+        <v>4026</v>
       </c>
       <c r="C131" s="18">
-        <v>42507.910416666666</v>
+        <v>42507.934236111112</v>
       </c>
       <c r="D131" s="18">
-        <v>42507.9453587963</v>
+        <v>42507.965567129628</v>
       </c>
       <c r="E131" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>4015/4016</v>
+        <v>4025/4026</v>
       </c>
       <c r="F131" s="15">
-        <v>4.0034722216660157E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.1331018515629694E-2</v>
       </c>
       <c r="G131" s="10"/>
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B132" s="6">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="C132" s="18">
-        <v>42507.90347222222</v>
+        <v>42507.914201388892</v>
       </c>
       <c r="D132" s="18">
-        <v>42507.928842592592</v>
+        <v>42507.941400462965</v>
       </c>
       <c r="E132" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>4025/4026</v>
+        <f t="shared" ref="E132:E143" si="6">IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <v>4023/4024</v>
       </c>
       <c r="F132" s="15">
-        <f t="shared" ref="F132:F135" si="5">D132-C132</f>
-        <v>2.5370370371092577E-2</v>
+        <f t="shared" ref="F132:F143" si="7">D132-C132</f>
+        <v>2.7199074072996154E-2</v>
       </c>
       <c r="G132" s="10"/>
+      <c r="H132"/>
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B133" s="6">
-        <v>4026</v>
+        <v>4023</v>
       </c>
       <c r="C133" s="18">
-        <v>42507.934236111112</v>
+        <v>42507.946875000001</v>
       </c>
       <c r="D133" s="18">
-        <v>42507.965567129628</v>
+        <v>42507.986770833333</v>
       </c>
       <c r="E133" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>4025/4026</v>
+        <f t="shared" si="6"/>
+        <v>4023/4024</v>
       </c>
       <c r="F133" s="15">
-        <f t="shared" si="5"/>
-        <v>3.1331018515629694E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.9895833331684116E-2</v>
       </c>
       <c r="G133" s="10"/>
+      <c r="H133"/>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B134" s="6">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="C134" s="18">
-        <v>42507.914201388892</v>
+        <v>42507.933842592596</v>
       </c>
       <c r="D134" s="18">
-        <v>42507.941400462965</v>
+        <v>42507.96334490741</v>
       </c>
       <c r="E134" s="15" t="str">
-        <f t="shared" ref="E134:E145" si="6">IF(ISEVEN(B134),(B134-1)&amp;"/"&amp;B134,B134&amp;"/"&amp;(B134+1))</f>
-        <v>4023/4024</v>
+        <f t="shared" si="6"/>
+        <v>4011/4012</v>
       </c>
       <c r="F134" s="15">
-        <f t="shared" ref="F134:F145" si="7">D134-C134</f>
-        <v>2.7199074072996154E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.9502314813726116E-2</v>
       </c>
       <c r="G134" s="10"/>
       <c r="H134"/>
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="B135" s="6">
-        <v>4023</v>
+        <v>4012</v>
       </c>
       <c r="C135" s="18">
-        <v>42507.946875000001</v>
+        <v>42507.971666666665</v>
       </c>
       <c r="D135" s="18">
-        <v>42507.986770833333</v>
+        <v>42508.008136574077</v>
       </c>
       <c r="E135" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F135" s="15">
         <f t="shared" si="7"/>
-        <v>3.9895833331684116E-2</v>
+        <v>3.6469907412538305E-2</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="B136" s="6">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="C136" s="18">
-        <v>42507.933842592596</v>
+        <v>42507.950370370374</v>
       </c>
       <c r="D136" s="18">
-        <v>42507.96334490741</v>
+        <v>42507.984143518515</v>
       </c>
       <c r="E136" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4011/4012</v>
+        <v>4015/4016</v>
       </c>
       <c r="F136" s="15">
         <f t="shared" si="7"/>
-        <v>2.9502314813726116E-2</v>
+        <v>3.3773148141335696E-2</v>
       </c>
       <c r="G136" s="10"/>
-      <c r="H136"/>
-    </row>
-    <row r="137" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B137" s="6">
-        <v>4012</v>
+        <v>4015</v>
       </c>
       <c r="C137" s="18">
-        <v>42507.971666666665</v>
+        <v>42507.988379629627</v>
       </c>
       <c r="D137" s="18">
-        <v>42508.008136574077</v>
+        <v>42508.02820601852</v>
       </c>
       <c r="E137" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4011/4012</v>
+        <v>4015/4016</v>
       </c>
       <c r="F137" s="15">
         <f t="shared" si="7"/>
-        <v>3.6469907412538305E-2</v>
+        <v>3.9826388892834075E-2</v>
       </c>
       <c r="G137" s="10"/>
-      <c r="H137"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="B138" s="6">
-        <v>4016</v>
+        <v>4025</v>
       </c>
       <c r="C138" s="18">
-        <v>42507.950370370374</v>
+        <v>42507.978680555556</v>
       </c>
       <c r="D138" s="18">
-        <v>42507.984143518515</v>
+        <v>42508.005173611113</v>
       </c>
       <c r="E138" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4015/4016</v>
+        <v>4025/4026</v>
       </c>
       <c r="F138" s="15">
         <f t="shared" si="7"/>
-        <v>3.3773148141335696E-2</v>
+        <v>2.6493055556784384E-2</v>
       </c>
       <c r="G138" s="10"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
+      <c r="H138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="B139" s="6">
-        <v>4015</v>
+        <v>4026</v>
       </c>
       <c r="C139" s="18">
-        <v>42507.988379629627</v>
+        <v>42508.016701388886</v>
       </c>
       <c r="D139" s="18">
-        <v>42508.02820601852</v>
+        <v>42508.046134259261</v>
       </c>
       <c r="E139" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4015/4016</v>
+        <v>4025/4026</v>
       </c>
       <c r="F139" s="15">
         <f t="shared" si="7"/>
-        <v>3.9826388892834075E-2</v>
+        <v>2.9432870374876074E-2</v>
       </c>
       <c r="G139" s="10"/>
-      <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="B140" s="6">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="C140" s="18">
-        <v>42507.978680555556</v>
+        <v>42507.993726851855</v>
       </c>
       <c r="D140" s="18">
-        <v>42508.005173611113</v>
+        <v>42508.025046296294</v>
       </c>
       <c r="E140" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4025/4026</v>
+        <v>4023/4024</v>
       </c>
       <c r="F140" s="15">
         <f t="shared" si="7"/>
-        <v>2.6493055556784384E-2</v>
+        <v>3.1319444438850041E-2</v>
       </c>
       <c r="G140" s="10"/>
-      <c r="H140"/>
-      <c r="L140"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B141" s="6">
-        <v>4026</v>
+        <v>4023</v>
       </c>
       <c r="C141" s="18">
-        <v>42508.016701388886</v>
+        <v>42508.030960648146</v>
       </c>
       <c r="D141" s="18">
-        <v>42508.046134259261</v>
+        <v>42508.065266203703</v>
       </c>
       <c r="E141" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4025/4026</v>
+        <v>4023/4024</v>
       </c>
       <c r="F141" s="15">
         <f t="shared" si="7"/>
-        <v>2.9432870374876074E-2</v>
+        <v>3.4305555556784384E-2</v>
       </c>
       <c r="G141" s="10"/>
       <c r="J141" s="2"/>
@@ -30501,101 +30519,69 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="B142" s="6">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="C142" s="18">
-        <v>42507.993726851855</v>
+        <v>42508.019305555557</v>
       </c>
       <c r="D142" s="18">
-        <v>42508.025046296294</v>
+        <v>42508.046249999999</v>
       </c>
       <c r="E142" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F142" s="15">
         <f t="shared" si="7"/>
-        <v>3.1319444438850041E-2</v>
+        <v>2.6944444442051463E-2</v>
       </c>
       <c r="G142" s="10"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B143" s="6">
-        <v>4023</v>
+        <v>4012</v>
       </c>
       <c r="C143" s="18">
-        <v>42508.030960648146</v>
+        <v>42508.055243055554</v>
       </c>
       <c r="D143" s="18">
-        <v>42508.065266203703</v>
+        <v>42508.086655092593</v>
       </c>
       <c r="E143" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="F143" s="15">
         <f t="shared" si="7"/>
-        <v>3.4305555556784384E-2</v>
-      </c>
-      <c r="G143" s="10"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
+        <v>3.1412037038535345E-2</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B144" s="6">
-        <v>4011</v>
-      </c>
-      <c r="C144" s="18">
-        <v>42508.019305555557</v>
-      </c>
-      <c r="D144" s="18">
-        <v>42508.046249999999</v>
-      </c>
-      <c r="E144" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>4011/4012</v>
-      </c>
-      <c r="F144" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6944444442051463E-2</v>
-      </c>
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
       <c r="G144" s="10"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B145" s="6">
-        <v>4012</v>
-      </c>
-      <c r="C145" s="18">
-        <v>42508.055243055554</v>
-      </c>
-      <c r="D145" s="18">
-        <v>42508.086655092593</v>
-      </c>
-      <c r="E145" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>4011/4012</v>
-      </c>
-      <c r="F145" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1412037038535345E-2</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>1957</v>
-      </c>
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="10"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
@@ -30625,20 +30611,20 @@
       <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
-      <c r="E149" s="15"/>
+      <c r="E149" s="6"/>
       <c r="F149" s="15"/>
       <c r="G149" s="10"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
-      <c r="E150" s="15"/>
+      <c r="E150" s="6"/>
       <c r="F150" s="15"/>
       <c r="G150" s="10"/>
     </row>
@@ -30668,24 +30654,6 @@
       <c r="E153" s="6"/>
       <c r="F153" s="15"/>
       <c r="G153" s="10"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="10"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G2">
@@ -30697,107 +30665,123 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A151:G155 C3:G150">
-    <cfRule type="expression" dxfId="37" priority="5">
+  <conditionalFormatting sqref="A149:G153 C3:G148">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G150">
-    <cfRule type="expression" dxfId="32" priority="1">
+  <conditionalFormatting sqref="A3:G148">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119:B121 A27:B41 A45:B101 A105:B108">
-    <cfRule type="expression" dxfId="31" priority="8">
+  <conditionalFormatting sqref="A117:B119 A27:B41 A103:B106 A45:B45 A49:B99">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B26 A43:B44 A103:B104">
-    <cfRule type="expression" dxfId="29" priority="11">
+  <conditionalFormatting sqref="A7:B26 A43:B44 A101:B102">
+    <cfRule type="expression" dxfId="35" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109:B117 A122:B125">
-    <cfRule type="expression" dxfId="27" priority="14">
-      <formula>$P113&gt;0</formula>
+  <conditionalFormatting sqref="A107:B115 A120:B123">
+    <cfRule type="expression" dxfId="33" priority="14">
+      <formula>$P111&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="15">
-      <formula>$O113&gt;0</formula>
+    <cfRule type="expression" dxfId="32" priority="15">
+      <formula>$O111&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B128">
-    <cfRule type="expression" dxfId="25" priority="17">
-      <formula>$P132&gt;0</formula>
+  <conditionalFormatting sqref="A124:B126">
+    <cfRule type="expression" dxfId="31" priority="17">
+      <formula>$P130&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
-      <formula>$O132&gt;0</formula>
+    <cfRule type="expression" dxfId="30" priority="18">
+      <formula>$O130&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:B127">
+    <cfRule type="expression" dxfId="29" priority="20">
+      <formula>$P134&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="21">
+      <formula>$O134&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:B128">
+    <cfRule type="expression" dxfId="27" priority="23">
+      <formula>$P136&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="24">
+      <formula>$O136&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:B148">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$P140&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>$O140&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:B116">
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="30">
+      <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="expression" dxfId="23" priority="20">
-      <formula>$P136&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>$O136&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130:B130">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>$P138&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A132:B150">
-    <cfRule type="expression" dxfId="19" priority="26">
-      <formula>$P142&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27">
-      <formula>$O142&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:B118">
-    <cfRule type="expression" dxfId="17" priority="29">
+  <conditionalFormatting sqref="A42:B42 A100:B100">
+    <cfRule type="expression" dxfId="19" priority="275">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="30">
+    <cfRule type="expression" dxfId="18" priority="276">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:B131">
-    <cfRule type="expression" dxfId="15" priority="33">
-      <formula>$P140&gt;0</formula>
+  <conditionalFormatting sqref="A48:B48">
+    <cfRule type="expression" dxfId="5" priority="295">
+      <formula>$P49&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="34">
-      <formula>$O140&gt;0</formula>
+    <cfRule type="expression" dxfId="4" priority="296">
+      <formula>$O49&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B42 A102:B102">
-    <cfRule type="expression" dxfId="2" priority="275">
+  <conditionalFormatting sqref="A46:B47">
+    <cfRule type="expression" dxfId="3" priority="297">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="276">
+    <cfRule type="expression" dxfId="2" priority="298">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30830,7 +30814,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A27:B41 A45:B101 A105:B108</xm:sqref>
+          <xm:sqref>A27:B41 A103:B106 A45:B45 A49:B99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="13" id="{CAD01099-F995-433E-86F4-3E4A2124310D}">
@@ -30843,11 +30827,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A7:B26 A43:B44 A103:B104</xm:sqref>
+          <xm:sqref>A7:B26 A43:B44 A101:B102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="16" id="{6CC9BF37-D45C-4D7F-81C8-E1994995AEED}">
-            <xm:f>$N113&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <xm:f>$N111&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -30856,11 +30840,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A109:B117 A122:B125</xm:sqref>
+          <xm:sqref>A107:B115 A120:B123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="19" id="{1ED789BF-EB92-4CF4-8D1E-16429D6737E4}">
-            <xm:f>$N132&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <xm:f>$N130&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -30869,10 +30853,23 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A126:B128</xm:sqref>
+          <xm:sqref>A124:B126</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="22" id="{430E9DE3-9656-4ED1-B354-E0C5B9C771FD}">
+            <xm:f>$N134&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A127:B127</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{77CA15BC-73EC-42D5-802C-E441A127A38B}">
             <xm:f>$N136&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -30882,11 +30879,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A129:B129</xm:sqref>
+          <xm:sqref>A128:B128</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" id="{77CA15BC-73EC-42D5-802C-E441A127A38B}">
-            <xm:f>$N138&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+          <x14:cfRule type="expression" priority="28" id="{28F0DE8F-1856-4CC0-B3CF-97B15F0131C4}">
+            <xm:f>$N140&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -30895,11 +30892,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A130:B130</xm:sqref>
+          <xm:sqref>A130:B148</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="28" id="{28F0DE8F-1856-4CC0-B3CF-97B15F0131C4}">
-            <xm:f>$N142&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+          <x14:cfRule type="expression" priority="31" id="{8F1C29FF-E339-40F6-9D7E-454A17C1CB9D}">
+            <xm:f>$N120&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -30908,20 +30905,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A132:B150</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="31" id="{8F1C29FF-E339-40F6-9D7E-454A17C1CB9D}">
-            <xm:f>$N122&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A119:B121</xm:sqref>
+          <xm:sqref>A117:B119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="32" id="{47C97E5F-A516-4AB1-89E3-A10B22C27799}">
@@ -30934,11 +30918,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A118:B118</xm:sqref>
+          <xm:sqref>A116:B116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="35" id="{F6E94441-5B09-4345-BBAA-9CD40A8AE754}">
-            <xm:f>$N140&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <xm:f>$N138&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -30947,7 +30931,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A131:B131</xm:sqref>
+          <xm:sqref>A129:B129</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="282" id="{6A970584-6397-4F84-8800-382B8BD6B32E}">
@@ -30960,7 +30944,33 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A42:B42 A102:B102</xm:sqref>
+          <xm:sqref>A42:B42 A100:B100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="303" id="{6A970584-6397-4F84-8800-382B8BD6B32E}">
+            <xm:f>$N49&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A48:B48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="304" id="{6A970584-6397-4F84-8800-382B8BD6B32E}">
+            <xm:f>#REF!&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A46:B47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -32058,145 +32068,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H4">
-    <cfRule type="expression" dxfId="245" priority="45">
+    <cfRule type="expression" dxfId="251" priority="45">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="46">
+    <cfRule type="expression" dxfId="250" priority="46">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="47">
+    <cfRule type="expression" dxfId="249" priority="47">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G8 F5:H6">
-    <cfRule type="expression" dxfId="242" priority="42">
+    <cfRule type="expression" dxfId="248" priority="42">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="43">
+    <cfRule type="expression" dxfId="247" priority="43">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="44">
+    <cfRule type="expression" dxfId="246" priority="44">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E8 H9:H11 H14:H18">
-    <cfRule type="expression" dxfId="239" priority="40">
+    <cfRule type="expression" dxfId="245" priority="40">
       <formula>$Q5&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="41">
+    <cfRule type="expression" dxfId="244" priority="41">
       <formula>$P5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="237" priority="37">
+    <cfRule type="expression" dxfId="243" priority="37">
       <formula>$Q7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="38">
+    <cfRule type="expression" dxfId="242" priority="38">
       <formula>$P7&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="235" priority="34">
+    <cfRule type="expression" dxfId="241" priority="34">
       <formula>$Q8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="35">
+    <cfRule type="expression" dxfId="240" priority="35">
       <formula>$P8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11">
-    <cfRule type="expression" dxfId="233" priority="30">
+    <cfRule type="expression" dxfId="239" priority="30">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="31">
+    <cfRule type="expression" dxfId="238" priority="31">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="32">
+    <cfRule type="expression" dxfId="237" priority="32">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="expression" dxfId="230" priority="28">
+    <cfRule type="expression" dxfId="236" priority="28">
       <formula>$Q9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="29">
+    <cfRule type="expression" dxfId="235" priority="29">
       <formula>$P9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G13">
-    <cfRule type="expression" dxfId="228" priority="24">
+    <cfRule type="expression" dxfId="234" priority="24">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="25">
+    <cfRule type="expression" dxfId="233" priority="25">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="26">
+    <cfRule type="expression" dxfId="232" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E13">
-    <cfRule type="expression" dxfId="225" priority="22">
+    <cfRule type="expression" dxfId="231" priority="22">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="23">
+    <cfRule type="expression" dxfId="230" priority="23">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="223" priority="19">
+    <cfRule type="expression" dxfId="229" priority="19">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="20">
+    <cfRule type="expression" dxfId="228" priority="20">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="221" priority="16">
+    <cfRule type="expression" dxfId="227" priority="16">
       <formula>$Q13&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="17">
+    <cfRule type="expression" dxfId="226" priority="17">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G18">
-    <cfRule type="expression" dxfId="219" priority="12">
+    <cfRule type="expression" dxfId="225" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="13">
+    <cfRule type="expression" dxfId="224" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="14">
+    <cfRule type="expression" dxfId="223" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E18">
-    <cfRule type="expression" dxfId="216" priority="10">
+    <cfRule type="expression" dxfId="222" priority="10">
       <formula>$Q14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="11">
+    <cfRule type="expression" dxfId="221" priority="11">
       <formula>$P14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:E41 G35:H41">
-    <cfRule type="expression" dxfId="214" priority="6">
+    <cfRule type="expression" dxfId="220" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="7">
+    <cfRule type="expression" dxfId="219" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="8">
+    <cfRule type="expression" dxfId="218" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C41 F35:F41">
-    <cfRule type="expression" dxfId="211" priority="4">
+    <cfRule type="expression" dxfId="217" priority="4">
       <formula>$P35&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="5">
+    <cfRule type="expression" dxfId="216" priority="5">
       <formula>$O35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:E41 G35:H41">
-    <cfRule type="expression" dxfId="209" priority="2">
+    <cfRule type="expression" dxfId="215" priority="2">
       <formula>NOT(ISBLANK($G35))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32345,8 +32355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32470,7 +32480,7 @@
       </c>
       <c r="C14" s="61">
         <f>$C$109</f>
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32479,7 +32489,7 @@
       </c>
       <c r="C15" s="58">
         <f>SUM(C3:C14)</f>
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -33973,7 +33983,7 @@
       </c>
       <c r="C108" s="25">
         <f>'2016-05-17 Train Runs'!K5</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D108" s="25" t="str">
         <f>'2016-05-17 Train Runs'!L5</f>
@@ -33994,7 +34004,7 @@
       </c>
       <c r="C109" s="25">
         <f>'2016-05-17 Train Runs'!K6</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D109" s="26">
         <f>'2016-05-17 Train Runs'!L6</f>
@@ -34015,7 +34025,7 @@
       </c>
       <c r="C110" s="30">
         <f>'2016-05-17 Train Runs'!K7</f>
-        <v>0.94405594405594406</v>
+        <v>0.94326241134751776</v>
       </c>
       <c r="D110" s="27" t="str">
         <f>'2016-05-17 Train Runs'!L7</f>
@@ -37638,56 +37648,56 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A151:G175 C149:G150">
-    <cfRule type="expression" dxfId="198" priority="28">
+    <cfRule type="expression" dxfId="204" priority="28">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="29">
+    <cfRule type="expression" dxfId="203" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="30">
+    <cfRule type="expression" dxfId="202" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:B150">
-    <cfRule type="expression" dxfId="195" priority="26">
+    <cfRule type="expression" dxfId="201" priority="26">
       <formula>$P149&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="27">
+    <cfRule type="expression" dxfId="200" priority="27">
       <formula>$O149&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G148">
-    <cfRule type="expression" dxfId="193" priority="10">
+    <cfRule type="expression" dxfId="199" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="11">
+    <cfRule type="expression" dxfId="198" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="12">
+    <cfRule type="expression" dxfId="197" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B148">
-    <cfRule type="expression" dxfId="190" priority="8">
+    <cfRule type="expression" dxfId="196" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="9">
+    <cfRule type="expression" dxfId="195" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C148">
-    <cfRule type="expression" dxfId="188" priority="5">
+    <cfRule type="expression" dxfId="194" priority="5">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="6">
+    <cfRule type="expression" dxfId="193" priority="6">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D148">
-    <cfRule type="expression" dxfId="186" priority="2">
+    <cfRule type="expression" dxfId="192" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="3">
+    <cfRule type="expression" dxfId="191" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41123,21 +41133,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G149">
-    <cfRule type="expression" dxfId="180" priority="4">
+    <cfRule type="expression" dxfId="186" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="5">
+    <cfRule type="expression" dxfId="185" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="6">
+    <cfRule type="expression" dxfId="184" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B149">
-    <cfRule type="expression" dxfId="177" priority="2">
+    <cfRule type="expression" dxfId="183" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="3">
+    <cfRule type="expression" dxfId="182" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44733,26 +44743,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G176 C3:G147">
-    <cfRule type="expression" dxfId="174" priority="5">
+    <cfRule type="expression" dxfId="180" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="6">
+    <cfRule type="expression" dxfId="179" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="7">
+    <cfRule type="expression" dxfId="178" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="171" priority="3">
+    <cfRule type="expression" dxfId="177" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="4">
+    <cfRule type="expression" dxfId="176" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="175" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48302,42 +48312,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A146:G174 C3:G145">
-    <cfRule type="expression" dxfId="167" priority="16">
+    <cfRule type="expression" dxfId="173" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="17">
+    <cfRule type="expression" dxfId="172" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="18">
+    <cfRule type="expression" dxfId="171" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B86 A88:B145 B87">
-    <cfRule type="expression" dxfId="164" priority="14">
+    <cfRule type="expression" dxfId="170" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="15">
+    <cfRule type="expression" dxfId="169" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G86 A88:G145 B87:G87">
-    <cfRule type="expression" dxfId="162" priority="12">
+    <cfRule type="expression" dxfId="168" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="161" priority="6">
+    <cfRule type="expression" dxfId="167" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="7">
+    <cfRule type="expression" dxfId="166" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="8">
+    <cfRule type="expression" dxfId="165" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="158" priority="5">
+    <cfRule type="expression" dxfId="164" priority="5">
       <formula>NOT(ISBLANK($G87))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51863,42 +51873,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G172 C3:D144 F3:G144">
-    <cfRule type="expression" dxfId="156" priority="12">
+    <cfRule type="expression" dxfId="162" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="13">
+    <cfRule type="expression" dxfId="161" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="14">
+    <cfRule type="expression" dxfId="160" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A86:B144 A3:B84 E3:E144">
-    <cfRule type="expression" dxfId="153" priority="10">
+    <cfRule type="expression" dxfId="159" priority="10">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="158" priority="11">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A86:D144 A3:D84 F3:G144">
-    <cfRule type="expression" dxfId="151" priority="8">
+    <cfRule type="expression" dxfId="157" priority="8">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="150" priority="5">
+    <cfRule type="expression" dxfId="156" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="6">
+    <cfRule type="expression" dxfId="155" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="7">
+    <cfRule type="expression" dxfId="154" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="147" priority="4">
+    <cfRule type="expression" dxfId="153" priority="4">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55442,26 +55452,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G171 D3:D146 F3:G146">
-    <cfRule type="expression" dxfId="144" priority="16">
+    <cfRule type="expression" dxfId="150" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="17">
+    <cfRule type="expression" dxfId="149" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="18">
+    <cfRule type="expression" dxfId="148" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E146 A3:C146">
-    <cfRule type="expression" dxfId="141" priority="14">
+    <cfRule type="expression" dxfId="147" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="15">
+    <cfRule type="expression" dxfId="146" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F146 D3:D143 F3:G143">
-    <cfRule type="expression" dxfId="139" priority="12">
+    <cfRule type="expression" dxfId="145" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs 2016-05-17 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-17 (FRA Format).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -4453,9 +4453,6 @@
     <t>Onboard entered a failsafe state that caused train comm outage</t>
   </si>
   <si>
-    <t>Train was cut out by message from dispatch system</t>
-  </si>
-  <si>
     <t>Wayside link failure</t>
   </si>
   <si>
@@ -6200,6 +6197,9 @@
   </si>
   <si>
     <t>PTC Run Count (2016-05-17)</t>
+  </si>
+  <si>
+    <t>Onboard entered a failsafe state that caused the dispatch system to cut it out</t>
   </si>
 </sst>
 </file>
@@ -6735,18 +6735,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="260">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6761,6 +6761,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6859,6 +6866,55 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8739,11 +8795,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12559,42 +12615,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A144:G171 C3:D143 F3:G143">
-    <cfRule type="expression" dxfId="141" priority="10">
+    <cfRule type="expression" dxfId="149" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="11">
+    <cfRule type="expression" dxfId="148" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="12">
+    <cfRule type="expression" dxfId="147" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A3:B84 A86:B143 E3:E143">
-    <cfRule type="expression" dxfId="138" priority="8">
+    <cfRule type="expression" dxfId="146" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="9">
+    <cfRule type="expression" dxfId="145" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A3:D84 A86:D143 F3:G143">
-    <cfRule type="expression" dxfId="136" priority="6">
+    <cfRule type="expression" dxfId="144" priority="6">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="135" priority="3">
+    <cfRule type="expression" dxfId="143" priority="3">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="4">
+    <cfRule type="expression" dxfId="142" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="5">
+    <cfRule type="expression" dxfId="141" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="132" priority="2">
+    <cfRule type="expression" dxfId="140" priority="2">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12639,8 +12695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14989,7 +15045,7 @@
         <v>2.733796297252411E-2</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1376</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -15203,7 +15259,7 @@
         <v>2.9872685190639459E-2</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -15373,7 +15429,7 @@
         <v>3.0752314814890269E-2</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -15396,7 +15452,7 @@
         <v>2.4189814816054422E-2</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -15442,7 +15498,7 @@
         <v>2.6087962964083999E-2</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -15744,7 +15800,7 @@
         <v>9.9999999947613105E-3</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -16071,52 +16127,68 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:G162">
-    <cfRule type="expression" dxfId="129" priority="33">
+  <conditionalFormatting sqref="C3:G102 C104:G162 C103:F103">
+    <cfRule type="expression" dxfId="137" priority="37">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="34">
+    <cfRule type="expression" dxfId="136" priority="38">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="35">
+    <cfRule type="expression" dxfId="135" priority="39">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G162">
-    <cfRule type="expression" dxfId="126" priority="29">
+  <conditionalFormatting sqref="A3:G102 A104:G162 A103:F103">
+    <cfRule type="expression" dxfId="134" priority="33">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 A89:B90 A103:B103 A121:B121 A113:B113">
-    <cfRule type="expression" dxfId="125" priority="54">
+    <cfRule type="expression" dxfId="133" priority="58">
       <formula>$P4&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="55">
+    <cfRule type="expression" dxfId="132" priority="59">
       <formula>$O4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B87 A91:B101 A124:B162 A104:B111 A114:B119">
-    <cfRule type="expression" dxfId="123" priority="69">
+    <cfRule type="expression" dxfId="131" priority="73">
       <formula>$P8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="70">
+    <cfRule type="expression" dxfId="130" priority="74">
       <formula>$O8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:B88 A102:B102 A120:B120 A122:B123">
-    <cfRule type="expression" dxfId="121" priority="87">
+    <cfRule type="expression" dxfId="129" priority="91">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="88">
+    <cfRule type="expression" dxfId="128" priority="92">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B112">
-    <cfRule type="expression" dxfId="119" priority="109">
+    <cfRule type="expression" dxfId="127" priority="113">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="110">
+    <cfRule type="expression" dxfId="126" priority="114">
       <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>#REF!&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(ISBLANK($G103))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16125,7 +16197,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="58" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="62" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>$N4&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -16138,7 +16210,7 @@
           <xm:sqref>A3:B5 A89:B90 A103:B103 A121:B121 A113:B113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="72" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="76" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>$N8&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -16151,7 +16223,7 @@
           <xm:sqref>A6:B87 A91:B101 A124:B162 A104:B111 A114:B119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="94" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="98" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>#REF!&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -16164,7 +16236,7 @@
           <xm:sqref>A88:B88 A102:B102 A120:B120 A122:B123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="116" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="120" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>#REF!&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -16331,7 +16403,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B4" s="6">
         <v>4032</v>
@@ -16365,7 +16437,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B5" s="6">
         <v>4040</v>
@@ -16402,7 +16474,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B6" s="6">
         <v>4023</v>
@@ -16439,7 +16511,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B7" s="6">
         <v>4016</v>
@@ -16476,7 +16548,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B8" s="6">
         <v>4026</v>
@@ -16513,7 +16585,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B9" s="6">
         <v>4038</v>
@@ -16549,7 +16621,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B10" s="6">
         <v>4037</v>
@@ -16570,7 +16642,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B11" s="6">
         <v>4014</v>
@@ -16591,7 +16663,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B12" s="6">
         <v>4013</v>
@@ -16612,7 +16684,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B13" s="6">
         <v>4011</v>
@@ -16633,7 +16705,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B14" s="6">
         <v>4012</v>
@@ -16654,7 +16726,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B15" s="6">
         <v>4031</v>
@@ -16675,7 +16747,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B16" s="6">
         <v>4032</v>
@@ -16696,7 +16768,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B17" s="6">
         <v>4040</v>
@@ -16717,7 +16789,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B18" s="6">
         <v>4039</v>
@@ -16738,7 +16810,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B19" s="6">
         <v>4024</v>
@@ -16759,7 +16831,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B20" s="6">
         <v>4023</v>
@@ -16780,7 +16852,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B21" s="6">
         <v>4016</v>
@@ -16801,7 +16873,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B22" s="6">
         <v>4015</v>
@@ -16822,7 +16894,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B23" s="6">
         <v>4038</v>
@@ -16843,7 +16915,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B24" s="6">
         <v>4037</v>
@@ -16864,7 +16936,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B25" s="6">
         <v>4014</v>
@@ -16885,7 +16957,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B26" s="6">
         <v>4013</v>
@@ -16906,7 +16978,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B27" s="6">
         <v>4011</v>
@@ -16929,7 +17001,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B28" s="6">
         <v>4012</v>
@@ -16950,7 +17022,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B29" s="6">
         <v>4031</v>
@@ -16971,7 +17043,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B30" s="6">
         <v>4032</v>
@@ -16992,7 +17064,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B31" s="6">
         <v>4040</v>
@@ -17013,7 +17085,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B32" s="6">
         <v>4039</v>
@@ -17034,7 +17106,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B33" s="6">
         <v>4024</v>
@@ -17055,7 +17127,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B34" s="6">
         <v>4023</v>
@@ -17076,7 +17148,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B35" s="6">
         <v>4016</v>
@@ -17097,7 +17169,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B36" s="6">
         <v>4015</v>
@@ -17118,7 +17190,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B37" s="6">
         <v>4038</v>
@@ -17139,7 +17211,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B38" s="6">
         <v>4037</v>
@@ -17160,7 +17232,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B39" s="6">
         <v>4014</v>
@@ -17181,7 +17253,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B40" s="6">
         <v>4013</v>
@@ -17202,7 +17274,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B41" s="6">
         <v>4011</v>
@@ -17223,7 +17295,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B42" s="6">
         <v>4012</v>
@@ -17244,7 +17316,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B43" s="6">
         <v>4031</v>
@@ -17265,7 +17337,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B44" s="6">
         <v>4032</v>
@@ -17286,7 +17358,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B45" s="6">
         <v>4040</v>
@@ -17307,7 +17379,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B46" s="6">
         <v>4039</v>
@@ -17328,7 +17400,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B47" s="6">
         <v>4024</v>
@@ -17349,7 +17421,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B48" s="6">
         <v>4023</v>
@@ -17370,7 +17442,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B49" s="6">
         <v>4016</v>
@@ -17393,7 +17465,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B50" s="6">
         <v>4015</v>
@@ -17414,7 +17486,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B51" s="6">
         <v>4038</v>
@@ -17435,7 +17507,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B52" s="6">
         <v>4037</v>
@@ -17456,7 +17528,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B53" s="6">
         <v>4014</v>
@@ -17477,7 +17549,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B54" s="6">
         <v>4013</v>
@@ -17498,7 +17570,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B55" s="6">
         <v>4011</v>
@@ -17519,7 +17591,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B56" s="6">
         <v>4012</v>
@@ -17540,7 +17612,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B57" s="6">
         <v>4031</v>
@@ -17561,7 +17633,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B58" s="6">
         <v>4032</v>
@@ -17582,7 +17654,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B59" s="6">
         <v>4040</v>
@@ -17603,7 +17675,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B60" s="6">
         <v>4039</v>
@@ -17624,7 +17696,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B61" s="6">
         <v>4024</v>
@@ -17645,7 +17717,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B62" s="6">
         <v>4023</v>
@@ -17666,7 +17738,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B63" s="6">
         <v>4015</v>
@@ -17687,7 +17759,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B64" s="6">
         <v>4038</v>
@@ -17708,7 +17780,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B65" s="6">
         <v>4037</v>
@@ -17729,7 +17801,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B66" s="6">
         <v>4014</v>
@@ -17750,7 +17822,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B67" s="6">
         <v>4013</v>
@@ -17771,7 +17843,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B68" s="6">
         <v>4011</v>
@@ -17792,7 +17864,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B69" s="6">
         <v>4012</v>
@@ -17813,7 +17885,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B70" s="6">
         <v>4031</v>
@@ -17834,7 +17906,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B71" s="6">
         <v>4032</v>
@@ -17855,7 +17927,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B72" s="6">
         <v>4040</v>
@@ -17876,7 +17948,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B73" s="6">
         <v>4039</v>
@@ -17897,7 +17969,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B74" s="6">
         <v>4025</v>
@@ -17918,7 +17990,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B75" s="6">
         <v>4026</v>
@@ -17939,7 +18011,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B76" s="6">
         <v>4016</v>
@@ -17960,7 +18032,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B77" s="6">
         <v>4015</v>
@@ -17981,7 +18053,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B78" s="6">
         <v>4038</v>
@@ -18002,7 +18074,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B79" s="6">
         <v>4037</v>
@@ -18023,7 +18095,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B80" s="6">
         <v>4014</v>
@@ -18044,7 +18116,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B81" s="6">
         <v>4013</v>
@@ -18065,7 +18137,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B82" s="6">
         <v>4011</v>
@@ -18086,7 +18158,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B83" s="6">
         <v>4012</v>
@@ -18107,7 +18179,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B84" s="6">
         <v>4031</v>
@@ -18128,7 +18200,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B85" s="6">
         <v>4032</v>
@@ -18149,7 +18221,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B86" s="6">
         <v>4040</v>
@@ -18170,7 +18242,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B87" s="6">
         <v>4039</v>
@@ -18191,7 +18263,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B88" s="6">
         <v>4025</v>
@@ -18212,7 +18284,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B89" s="6">
         <v>4026</v>
@@ -18233,7 +18305,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B90" s="6">
         <v>4016</v>
@@ -18254,7 +18326,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B91" s="6">
         <v>4015</v>
@@ -18275,7 +18347,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B92" s="6">
         <v>4038</v>
@@ -18296,7 +18368,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B93" s="6">
         <v>4037</v>
@@ -18317,7 +18389,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B94" s="6">
         <v>4014</v>
@@ -18338,7 +18410,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B95" s="6">
         <v>4013</v>
@@ -18359,7 +18431,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B96" s="6">
         <v>4011</v>
@@ -18380,7 +18452,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B97" s="6">
         <v>4012</v>
@@ -18401,7 +18473,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B98" s="6">
         <v>4031</v>
@@ -18422,7 +18494,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B99" s="6">
         <v>4032</v>
@@ -18443,7 +18515,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B100" s="6">
         <v>4040</v>
@@ -18464,7 +18536,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B101" s="6">
         <v>4039</v>
@@ -18485,7 +18557,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B102" s="6">
         <v>4025</v>
@@ -18506,7 +18578,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B103" s="6">
         <v>4026</v>
@@ -18527,7 +18599,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B104" s="6">
         <v>4016</v>
@@ -18548,7 +18620,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B105" s="6">
         <v>4015</v>
@@ -18569,7 +18641,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B106" s="6">
         <v>4038</v>
@@ -18590,7 +18662,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B107" s="6">
         <v>4037</v>
@@ -18611,7 +18683,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B108" s="6">
         <v>4014</v>
@@ -18632,7 +18704,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B109" s="6">
         <v>4013</v>
@@ -18653,7 +18725,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B110" s="6">
         <v>4011</v>
@@ -18674,7 +18746,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B111" s="6">
         <v>4012</v>
@@ -18695,7 +18767,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B112" s="6">
         <v>4031</v>
@@ -18716,7 +18788,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B113" s="6">
         <v>4032</v>
@@ -18737,7 +18809,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B114" s="6">
         <v>4040</v>
@@ -18758,7 +18830,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B115" s="6">
         <v>4039</v>
@@ -18779,7 +18851,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B116" s="6">
         <v>4025</v>
@@ -18800,7 +18872,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B117" s="6">
         <v>4026</v>
@@ -18821,7 +18893,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B118" s="6">
         <v>4016</v>
@@ -18842,7 +18914,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B119" s="6">
         <v>4015</v>
@@ -18863,7 +18935,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B120" s="6">
         <v>4038</v>
@@ -18884,7 +18956,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B121" s="6">
         <v>4037</v>
@@ -18905,7 +18977,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B122" s="6">
         <v>4011</v>
@@ -18926,7 +18998,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B123" s="6">
         <v>4012</v>
@@ -18947,7 +19019,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B124" s="6">
         <v>4040</v>
@@ -18968,7 +19040,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B125" s="6">
         <v>4039</v>
@@ -18989,7 +19061,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B126" s="6">
         <v>4016</v>
@@ -19010,7 +19082,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B127" s="6">
         <v>4015</v>
@@ -19031,7 +19103,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B128" s="6">
         <v>4038</v>
@@ -19052,7 +19124,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B129" s="6">
         <v>4037</v>
@@ -19073,7 +19145,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B130" s="6">
         <v>4024</v>
@@ -19094,7 +19166,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B131" s="6">
         <v>4023</v>
@@ -19115,7 +19187,7 @@
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B132" s="6">
         <v>4040</v>
@@ -19136,7 +19208,7 @@
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B133" s="6">
         <v>4039</v>
@@ -19157,7 +19229,7 @@
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B134" s="6">
         <v>4016</v>
@@ -19178,7 +19250,7 @@
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B135" s="6">
         <v>4015</v>
@@ -19199,7 +19271,7 @@
     </row>
     <row r="136" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B136" s="6">
         <v>4038</v>
@@ -19220,7 +19292,7 @@
     </row>
     <row r="137" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B137" s="6">
         <v>4037</v>
@@ -19241,7 +19313,7 @@
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B138" s="6">
         <v>4024</v>
@@ -19263,7 +19335,7 @@
     </row>
     <row r="139" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B139" s="6">
         <v>4023</v>
@@ -19285,7 +19357,7 @@
     </row>
     <row r="140" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B140" s="6">
         <v>4040</v>
@@ -19307,7 +19379,7 @@
     </row>
     <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B141" s="6">
         <v>4039</v>
@@ -19329,7 +19401,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B142" s="6">
         <v>4016</v>
@@ -19352,7 +19424,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B143" s="6">
         <v>4015</v>
@@ -19376,7 +19448,7 @@
     </row>
     <row r="144" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B144" s="6">
         <v>4038</v>
@@ -19402,7 +19474,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B145" s="6">
         <v>4037</v>
@@ -19425,7 +19497,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B146" s="6">
         <v>4024</v>
@@ -19448,7 +19520,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B147" s="6">
         <v>4023</v>
@@ -19678,26 +19750,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A165:G169 C3:G164">
-    <cfRule type="expression" dxfId="113" priority="25">
+    <cfRule type="expression" dxfId="121" priority="25">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="26">
+    <cfRule type="expression" dxfId="120" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="27">
+    <cfRule type="expression" dxfId="119" priority="27">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B164">
-    <cfRule type="expression" dxfId="110" priority="23">
+    <cfRule type="expression" dxfId="118" priority="23">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="24">
+    <cfRule type="expression" dxfId="117" priority="24">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G164">
-    <cfRule type="expression" dxfId="108" priority="21">
+    <cfRule type="expression" dxfId="116" priority="21">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19874,7 +19946,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B4" s="6">
         <v>4032</v>
@@ -19908,7 +19980,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="6">
         <v>4007</v>
@@ -19945,7 +20017,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B6" s="6">
         <v>4017</v>
@@ -19963,7 +20035,7 @@
         <v>2.156249999825377E-2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>15</v>
@@ -19984,7 +20056,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B7" s="6">
         <v>4025</v>
@@ -20002,7 +20074,7 @@
         <v>2.3587962961755693E-2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>9</v>
@@ -20023,7 +20095,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B8" s="6">
         <v>4030</v>
@@ -20060,7 +20132,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B9" s="6">
         <v>4016</v>
@@ -20096,7 +20168,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B10" s="6">
         <v>4015</v>
@@ -20117,7 +20189,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B11" s="6">
         <v>4040</v>
@@ -20138,7 +20210,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B12" s="6">
         <v>4039</v>
@@ -20159,7 +20231,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B13" s="6">
         <v>4014</v>
@@ -20180,7 +20252,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B14" s="6">
         <v>4013</v>
@@ -20201,7 +20273,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B15" s="6">
         <v>4031</v>
@@ -20222,7 +20294,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B16" s="6">
         <v>4032</v>
@@ -20243,7 +20315,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B17" s="6">
         <v>4007</v>
@@ -20264,7 +20336,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B18" s="6">
         <v>4008</v>
@@ -20285,7 +20357,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B19" s="6">
         <v>4018</v>
@@ -20306,7 +20378,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B20" s="6">
         <v>4017</v>
@@ -20327,7 +20399,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B21" s="6">
         <v>4029</v>
@@ -20348,7 +20420,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B22" s="6">
         <v>4030</v>
@@ -20371,7 +20443,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B23" s="6">
         <v>4016</v>
@@ -20392,7 +20464,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B24" s="6">
         <v>4015</v>
@@ -20413,7 +20485,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B25" s="6">
         <v>4040</v>
@@ -20434,7 +20506,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B26" s="6">
         <v>4039</v>
@@ -20452,12 +20524,12 @@
         <v>1.6365740746550728E-2</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B27" s="6">
         <v>4014</v>
@@ -20478,7 +20550,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B28" s="6">
         <v>4013</v>
@@ -20499,7 +20571,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B29" s="6">
         <v>4031</v>
@@ -20520,7 +20592,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B30" s="6">
         <v>4032</v>
@@ -20541,7 +20613,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B31" s="6">
         <v>4007</v>
@@ -20562,7 +20634,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B32" s="6">
         <v>4008</v>
@@ -20583,7 +20655,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B33" s="6">
         <v>4018</v>
@@ -20604,7 +20676,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B34" s="6">
         <v>4017</v>
@@ -20625,7 +20697,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B35" s="6">
         <v>4024</v>
@@ -20646,7 +20718,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B36" s="6">
         <v>4023</v>
@@ -20667,7 +20739,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B37" s="6">
         <v>4016</v>
@@ -20688,7 +20760,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B38" s="6">
         <v>4015</v>
@@ -20709,7 +20781,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B39" s="6">
         <v>4040</v>
@@ -20730,7 +20802,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B40" s="6">
         <v>4039</v>
@@ -20751,7 +20823,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B41" s="6">
         <v>4014</v>
@@ -20772,7 +20844,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B42" s="6">
         <v>4013</v>
@@ -20793,7 +20865,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B43" s="6">
         <v>4031</v>
@@ -20814,7 +20886,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B44" s="6">
         <v>4032</v>
@@ -20835,7 +20907,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B45" s="6">
         <v>4007</v>
@@ -20856,7 +20928,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B46" s="6">
         <v>4008</v>
@@ -20877,7 +20949,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B47" s="6">
         <v>4018</v>
@@ -20898,7 +20970,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B48" s="6">
         <v>4017</v>
@@ -20919,7 +20991,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B49" s="6">
         <v>4024</v>
@@ -20940,7 +21012,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B50" s="6">
         <v>4023</v>
@@ -20961,7 +21033,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B51" s="6">
         <v>4016</v>
@@ -20982,7 +21054,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B52" s="6">
         <v>4015</v>
@@ -21003,7 +21075,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B53" s="6">
         <v>4040</v>
@@ -21024,7 +21096,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B54" s="6">
         <v>4039</v>
@@ -21045,7 +21117,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B55" s="6">
         <v>4014</v>
@@ -21066,7 +21138,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B56" s="6">
         <v>4013</v>
@@ -21087,7 +21159,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B57" s="6">
         <v>4031</v>
@@ -21108,7 +21180,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B58" s="6">
         <v>4032</v>
@@ -21129,7 +21201,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B59" s="6">
         <v>4007</v>
@@ -21150,7 +21222,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B60" s="6">
         <v>4008</v>
@@ -21171,7 +21243,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B61" s="6">
         <v>4018</v>
@@ -21192,7 +21264,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B62" s="6">
         <v>4017</v>
@@ -21213,7 +21285,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B63" s="6">
         <v>4024</v>
@@ -21234,7 +21306,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B64" s="6">
         <v>4023</v>
@@ -21255,7 +21327,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B65" s="6">
         <v>4016</v>
@@ -21276,7 +21348,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B66" s="6">
         <v>4015</v>
@@ -21297,7 +21369,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B67" s="6">
         <v>4040</v>
@@ -21318,7 +21390,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B68" s="6">
         <v>4039</v>
@@ -21339,7 +21411,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B69" s="6">
         <v>4014</v>
@@ -21360,7 +21432,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B70" s="6">
         <v>4013</v>
@@ -21381,7 +21453,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B71" s="6">
         <v>4031</v>
@@ -21402,7 +21474,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B72" s="6">
         <v>4032</v>
@@ -21423,7 +21495,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B73" s="6">
         <v>4007</v>
@@ -21444,7 +21516,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B74" s="6">
         <v>4008</v>
@@ -21465,7 +21537,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B75" s="6">
         <v>4018</v>
@@ -21486,7 +21558,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B76" s="6">
         <v>4017</v>
@@ -21507,7 +21579,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B77" s="6">
         <v>4024</v>
@@ -21528,7 +21600,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B78" s="6">
         <v>4023</v>
@@ -21549,7 +21621,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B79" s="6">
         <v>4016</v>
@@ -21570,7 +21642,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B80" s="6">
         <v>4015</v>
@@ -21591,7 +21663,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B81" s="6">
         <v>4040</v>
@@ -21612,7 +21684,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B82" s="6">
         <v>4039</v>
@@ -21633,7 +21705,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B83" s="6">
         <v>4014</v>
@@ -21654,7 +21726,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B84" s="6">
         <v>4013</v>
@@ -21675,7 +21747,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B85" s="6">
         <v>4031</v>
@@ -21696,7 +21768,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B86" s="6">
         <v>4032</v>
@@ -21717,7 +21789,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B87" s="6">
         <v>4007</v>
@@ -21738,7 +21810,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B88" s="6">
         <v>4008</v>
@@ -21759,7 +21831,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B89" s="6">
         <v>4018</v>
@@ -21780,7 +21852,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B90" s="6">
         <v>4017</v>
@@ -21801,7 +21873,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B91" s="6">
         <v>4024</v>
@@ -21822,7 +21894,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B92" s="6">
         <v>4023</v>
@@ -21843,7 +21915,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B93" s="6">
         <v>4016</v>
@@ -21864,7 +21936,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B94" s="6">
         <v>4015</v>
@@ -21885,7 +21957,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B95" s="6">
         <v>4040</v>
@@ -21906,7 +21978,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B96" s="6">
         <v>4039</v>
@@ -21927,7 +21999,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B97" s="6">
         <v>4014</v>
@@ -21948,7 +22020,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B98" s="6">
         <v>4013</v>
@@ -21969,7 +22041,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B99" s="6">
         <v>4031</v>
@@ -21990,7 +22062,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B100" s="6">
         <v>4032</v>
@@ -22011,7 +22083,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B101" s="6">
         <v>4007</v>
@@ -22034,7 +22106,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B102" s="6">
         <v>4008</v>
@@ -22055,7 +22127,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B103" s="6">
         <v>4018</v>
@@ -22076,7 +22148,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B104" s="6">
         <v>4017</v>
@@ -22097,7 +22169,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B105" s="6">
         <v>4024</v>
@@ -22118,7 +22190,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B106" s="6">
         <v>4023</v>
@@ -22139,7 +22211,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B107" s="6">
         <v>4016</v>
@@ -22160,7 +22232,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B108" s="6">
         <v>4015</v>
@@ -22181,7 +22253,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B109" s="6">
         <v>4040</v>
@@ -22202,7 +22274,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B110" s="6">
         <v>4039</v>
@@ -22220,12 +22292,12 @@
         <v>1.7835648148320615E-2</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B111" s="6">
         <v>4014</v>
@@ -22246,7 +22318,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B112" s="6">
         <v>4013</v>
@@ -22267,7 +22339,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B113" s="6">
         <v>4031</v>
@@ -22288,7 +22360,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B114" s="6">
         <v>4032</v>
@@ -22309,7 +22381,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B115" s="6">
         <v>4029</v>
@@ -22330,7 +22402,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B116" s="6">
         <v>4030</v>
@@ -22351,7 +22423,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B117" s="6">
         <v>4018</v>
@@ -22372,7 +22444,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B118" s="6">
         <v>4017</v>
@@ -22393,7 +22465,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B119" s="6">
         <v>4024</v>
@@ -22414,7 +22486,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B120" s="6">
         <v>4023</v>
@@ -22435,7 +22507,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B121" s="6">
         <v>4016</v>
@@ -22456,7 +22528,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B122" s="6">
         <v>4015</v>
@@ -22477,7 +22549,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B123" s="6">
         <v>4014</v>
@@ -22498,7 +22570,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B124" s="6">
         <v>4013</v>
@@ -22519,7 +22591,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B125" s="6">
         <v>4029</v>
@@ -22540,7 +22612,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B126" s="6">
         <v>4030</v>
@@ -22561,7 +22633,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B127" s="6">
         <v>4024</v>
@@ -22582,7 +22654,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B128" s="6">
         <v>4023</v>
@@ -22600,12 +22672,12 @@
         <v>1.1585648149775807E-2</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B129" s="6">
         <v>4016</v>
@@ -22626,7 +22698,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B130" s="6">
         <v>4015</v>
@@ -22644,12 +22716,12 @@
         <v>1.1481481480586808E-2</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B131" s="6">
         <v>4014</v>
@@ -22667,12 +22739,12 @@
         <v>8.2523148157633841E-3</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B132" s="6">
         <v>4029</v>
@@ -22690,12 +22762,12 @@
         <v>2.2418981476221234E-2</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B133" s="6">
         <v>4007</v>
@@ -22713,12 +22785,12 @@
         <v>5.7870370073942468E-4</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B134" s="6">
         <v>4030</v>
@@ -22739,7 +22811,7 @@
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B135" s="6">
         <v>4024</v>
@@ -22760,7 +22832,7 @@
     </row>
     <row r="136" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B136" s="6">
         <v>4008</v>
@@ -22781,7 +22853,7 @@
     </row>
     <row r="137" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B137" s="6">
         <v>4016</v>
@@ -22802,7 +22874,7 @@
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B138" s="6">
         <v>4023</v>
@@ -22824,7 +22896,7 @@
     </row>
     <row r="139" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B139" s="6">
         <v>4014</v>
@@ -22846,7 +22918,7 @@
     </row>
     <row r="140" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B140" s="6">
         <v>4015</v>
@@ -22868,7 +22940,7 @@
     </row>
     <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B141" s="6">
         <v>4029</v>
@@ -22890,7 +22962,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B142" s="6">
         <v>4013</v>
@@ -22913,7 +22985,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B143" s="6">
         <v>4007</v>
@@ -22937,7 +23009,7 @@
     </row>
     <row r="144" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B144" s="6">
         <v>4030</v>
@@ -23113,82 +23185,82 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A155:G159 C3:G154">
-    <cfRule type="expression" dxfId="106" priority="5">
+    <cfRule type="expression" dxfId="114" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="6">
+    <cfRule type="expression" dxfId="113" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="7">
+    <cfRule type="expression" dxfId="112" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="111" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="4">
+    <cfRule type="expression" dxfId="110" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G154">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="109" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110">
-    <cfRule type="expression" dxfId="100" priority="141">
+    <cfRule type="expression" dxfId="108" priority="141">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="142">
+    <cfRule type="expression" dxfId="107" priority="142">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="98" priority="153">
+    <cfRule type="expression" dxfId="106" priority="153">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="154">
+    <cfRule type="expression" dxfId="105" priority="154">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B128">
-    <cfRule type="expression" dxfId="96" priority="166">
+    <cfRule type="expression" dxfId="104" priority="166">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="167">
+    <cfRule type="expression" dxfId="103" priority="167">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B131">
-    <cfRule type="expression" dxfId="94" priority="180">
+    <cfRule type="expression" dxfId="102" priority="180">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="181">
+    <cfRule type="expression" dxfId="101" priority="181">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="92" priority="194">
+    <cfRule type="expression" dxfId="100" priority="194">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="195">
+    <cfRule type="expression" dxfId="99" priority="195">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="90" priority="208">
+    <cfRule type="expression" dxfId="98" priority="208">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="209">
+    <cfRule type="expression" dxfId="97" priority="209">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B154">
-    <cfRule type="expression" dxfId="88" priority="222">
+    <cfRule type="expression" dxfId="96" priority="222">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="223">
+    <cfRule type="expression" dxfId="95" priority="223">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23426,7 +23498,7 @@
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B3" s="6">
         <v>4011</v>
@@ -23458,7 +23530,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B4" s="6">
         <v>4019</v>
@@ -23494,7 +23566,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B5" s="6">
         <v>4031</v>
@@ -23533,7 +23605,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B6" s="6">
         <v>4010</v>
@@ -23572,7 +23644,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B7" s="6">
         <v>4040</v>
@@ -23611,7 +23683,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B8" s="6">
         <v>4043</v>
@@ -23650,7 +23722,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B9" s="6">
         <v>4024</v>
@@ -23688,7 +23760,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B10" s="6">
         <v>4023</v>
@@ -23711,7 +23783,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B11" s="6">
         <v>4016</v>
@@ -23734,7 +23806,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B12" s="6">
         <v>4015</v>
@@ -23757,7 +23829,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B13" s="6">
         <v>4011</v>
@@ -23780,7 +23852,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B14" s="6">
         <v>4012</v>
@@ -23803,7 +23875,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B15" s="6">
         <v>4020</v>
@@ -23826,7 +23898,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B16" s="6">
         <v>4019</v>
@@ -23849,7 +23921,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B17" s="6">
         <v>4031</v>
@@ -23872,7 +23944,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B18" s="6">
         <v>4032</v>
@@ -23895,7 +23967,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B19" s="6">
         <v>4009</v>
@@ -23918,7 +23990,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B20" s="6">
         <v>4010</v>
@@ -23941,7 +24013,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B21" s="6">
         <v>4040</v>
@@ -23964,7 +24036,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B22" s="6">
         <v>4039</v>
@@ -23987,7 +24059,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B23" s="6">
         <v>4024</v>
@@ -24010,7 +24082,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B24" s="6">
         <v>4023</v>
@@ -24033,7 +24105,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B25" s="6">
         <v>4016</v>
@@ -24056,7 +24128,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B26" s="6">
         <v>4015</v>
@@ -24079,7 +24151,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B27" s="6">
         <v>4011</v>
@@ -24102,7 +24174,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B28" s="6">
         <v>4012</v>
@@ -24125,7 +24197,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B29" s="6">
         <v>4020</v>
@@ -24148,7 +24220,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B30" s="6">
         <v>4019</v>
@@ -24171,7 +24243,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B31" s="6">
         <v>4031</v>
@@ -24194,7 +24266,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B32" s="6">
         <v>4032</v>
@@ -24217,7 +24289,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B33" s="6">
         <v>4009</v>
@@ -24240,7 +24312,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B34" s="6">
         <v>4010</v>
@@ -24263,7 +24335,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B35" s="6">
         <v>4040</v>
@@ -24286,7 +24358,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B36" s="6">
         <v>4039</v>
@@ -24309,7 +24381,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B37" s="6">
         <v>4024</v>
@@ -24332,7 +24404,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B38" s="6">
         <v>4023</v>
@@ -24355,7 +24427,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B39" s="6">
         <v>4016</v>
@@ -24378,7 +24450,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B40" s="6">
         <v>4015</v>
@@ -24401,7 +24473,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B41" s="6">
         <v>4011</v>
@@ -24424,7 +24496,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B42" s="6">
         <v>4012</v>
@@ -24447,7 +24519,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B43" s="6">
         <v>4020</v>
@@ -24470,7 +24542,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B44" s="6">
         <v>4019</v>
@@ -24493,7 +24565,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B45" s="6">
         <v>4031</v>
@@ -24516,7 +24588,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B46" s="6">
         <v>4032</v>
@@ -24539,7 +24611,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B47" s="6">
         <v>4009</v>
@@ -24562,7 +24634,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B48" s="6">
         <v>4010</v>
@@ -24585,7 +24657,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B49" s="6">
         <v>4040</v>
@@ -24608,7 +24680,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B50" s="6">
         <v>4039</v>
@@ -24631,7 +24703,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B51" s="6">
         <v>4024</v>
@@ -24654,7 +24726,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B52" s="6">
         <v>4023</v>
@@ -24677,7 +24749,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B53" s="6">
         <v>4016</v>
@@ -24700,7 +24772,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B54" s="6">
         <v>4015</v>
@@ -24723,7 +24795,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B55" s="6">
         <v>4011</v>
@@ -24746,7 +24818,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B56" s="6">
         <v>4012</v>
@@ -24769,7 +24841,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B57" s="6">
         <v>4020</v>
@@ -24792,7 +24864,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B58" s="6">
         <v>4019</v>
@@ -24815,7 +24887,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B59" s="6">
         <v>4031</v>
@@ -24838,7 +24910,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B60" s="6">
         <v>4032</v>
@@ -24861,7 +24933,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B61" s="6">
         <v>4009</v>
@@ -24884,7 +24956,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B62" s="6">
         <v>4010</v>
@@ -24907,7 +24979,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B63" s="6">
         <v>4040</v>
@@ -24930,7 +25002,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B64" s="6">
         <v>4039</v>
@@ -24953,7 +25025,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B65" s="6">
         <v>4024</v>
@@ -24976,7 +25048,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B66" s="6">
         <v>4023</v>
@@ -24999,7 +25071,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B67" s="6">
         <v>4016</v>
@@ -25022,7 +25094,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B68" s="6">
         <v>4015</v>
@@ -25045,7 +25117,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B69" s="6">
         <v>4011</v>
@@ -25068,7 +25140,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B70" s="6">
         <v>4012</v>
@@ -25091,7 +25163,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B71" s="6">
         <v>4020</v>
@@ -25114,7 +25186,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B72" s="6">
         <v>4019</v>
@@ -25137,7 +25209,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B73" s="6">
         <v>4031</v>
@@ -25160,7 +25232,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B74" s="6">
         <v>4032</v>
@@ -25183,7 +25255,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B75" s="6">
         <v>4009</v>
@@ -25206,7 +25278,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B76" s="6">
         <v>4010</v>
@@ -25229,7 +25301,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B77" s="6">
         <v>4040</v>
@@ -25252,7 +25324,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B78" s="6">
         <v>4039</v>
@@ -25275,7 +25347,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B79" s="6">
         <v>4024</v>
@@ -25298,7 +25370,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B80" s="6">
         <v>4023</v>
@@ -25321,7 +25393,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B81" s="6">
         <v>4016</v>
@@ -25344,7 +25416,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B82" s="6">
         <v>4015</v>
@@ -25367,7 +25439,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B83" s="6">
         <v>4011</v>
@@ -25390,7 +25462,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B84" s="6">
         <v>4012</v>
@@ -25413,7 +25485,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B85" s="6">
         <v>4020</v>
@@ -25436,7 +25508,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B86" s="6">
         <v>4019</v>
@@ -25459,7 +25531,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B87" s="6">
         <v>4031</v>
@@ -25482,7 +25554,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B88" s="6">
         <v>4032</v>
@@ -25505,7 +25577,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B89" s="6">
         <v>4009</v>
@@ -25528,7 +25600,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B90" s="6">
         <v>4010</v>
@@ -25551,7 +25623,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B91" s="6">
         <v>4039</v>
@@ -25574,7 +25646,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B92" s="6">
         <v>4024</v>
@@ -25597,7 +25669,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B93" s="6">
         <v>4023</v>
@@ -25620,7 +25692,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B94" s="6">
         <v>4016</v>
@@ -25643,7 +25715,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B95" s="6">
         <v>4015</v>
@@ -25666,7 +25738,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B96" s="6">
         <v>4011</v>
@@ -25689,7 +25761,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B97" s="6">
         <v>4012</v>
@@ -25712,7 +25784,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B98" s="6">
         <v>4020</v>
@@ -25735,7 +25807,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B99" s="6">
         <v>4019</v>
@@ -25758,7 +25830,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B100" s="6">
         <v>4031</v>
@@ -25781,7 +25853,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B101" s="6">
         <v>4032</v>
@@ -25804,7 +25876,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B102" s="6">
         <v>4009</v>
@@ -25827,7 +25899,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B103" s="6">
         <v>4010</v>
@@ -25850,7 +25922,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B104" s="6">
         <v>4044</v>
@@ -25873,7 +25945,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B105" s="6">
         <v>4043</v>
@@ -25896,7 +25968,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B106" s="6">
         <v>4024</v>
@@ -25919,7 +25991,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B107" s="6">
         <v>4023</v>
@@ -25942,7 +26014,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B108" s="6">
         <v>4016</v>
@@ -25965,7 +26037,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B109" s="6">
         <v>4015</v>
@@ -25988,7 +26060,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B110" s="6">
         <v>4011</v>
@@ -26011,7 +26083,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B111" s="6">
         <v>4012</v>
@@ -26034,7 +26106,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B112" s="6">
         <v>4020</v>
@@ -26057,7 +26129,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B113" s="6">
         <v>4019</v>
@@ -26080,7 +26152,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B114" s="6">
         <v>4031</v>
@@ -26103,7 +26175,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B115" s="6">
         <v>4032</v>
@@ -26126,7 +26198,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B116" s="6">
         <v>4009</v>
@@ -26149,7 +26221,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B117" s="6">
         <v>4010</v>
@@ -26172,7 +26244,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B118" s="6">
         <v>4044</v>
@@ -26195,7 +26267,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B119" s="6">
         <v>4043</v>
@@ -26218,7 +26290,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B120" s="6">
         <v>4024</v>
@@ -26241,7 +26313,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B121" s="6">
         <v>4023</v>
@@ -26264,7 +26336,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B122" s="6">
         <v>4011</v>
@@ -26287,7 +26359,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B123" s="6">
         <v>4012</v>
@@ -26311,7 +26383,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B124" s="6">
         <v>4029</v>
@@ -26334,7 +26406,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B125" s="6">
         <v>4030</v>
@@ -26359,7 +26431,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B126" s="6">
         <v>4044</v>
@@ -26382,7 +26454,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B127" s="6">
         <v>4043</v>
@@ -26405,7 +26477,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B128" s="6">
         <v>4024</v>
@@ -26428,7 +26500,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B129" s="6">
         <v>4023</v>
@@ -26448,12 +26520,12 @@
         <v>5.7997685187729076E-2</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B130" s="6">
         <v>4011</v>
@@ -26476,7 +26548,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B131" s="6">
         <v>4012</v>
@@ -26499,7 +26571,7 @@
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B132" s="6">
         <v>4031</v>
@@ -26519,12 +26591,12 @@
         <v>5.0937500003783498E-2</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B133" s="6">
         <v>4044</v>
@@ -26543,12 +26615,12 @@
         <v>4.0034722216660157E-2</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B134" s="6">
         <v>4024</v>
@@ -26568,12 +26640,12 @@
         <v>2.5023148147738539E-2</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B135" s="6">
         <v>4011</v>
@@ -26823,98 +26895,98 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A153:G157 C3:G152">
-    <cfRule type="expression" dxfId="78" priority="5">
+    <cfRule type="expression" dxfId="86" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="6">
+    <cfRule type="expression" dxfId="85" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="7">
+    <cfRule type="expression" dxfId="84" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="75" priority="3">
+    <cfRule type="expression" dxfId="83" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="82" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G152">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="81" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110 A121:B123">
-    <cfRule type="expression" dxfId="72" priority="8">
+    <cfRule type="expression" dxfId="80" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="9">
+    <cfRule type="expression" dxfId="79" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="78" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="12">
+    <cfRule type="expression" dxfId="77" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B119 A124:B127">
-    <cfRule type="expression" dxfId="68" priority="14">
+    <cfRule type="expression" dxfId="76" priority="14">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="15">
+    <cfRule type="expression" dxfId="75" priority="15">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B130">
-    <cfRule type="expression" dxfId="66" priority="17">
+    <cfRule type="expression" dxfId="74" priority="17">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="18">
+    <cfRule type="expression" dxfId="73" priority="18">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B131">
-    <cfRule type="expression" dxfId="64" priority="20">
+    <cfRule type="expression" dxfId="72" priority="20">
       <formula>$P138&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="21">
+    <cfRule type="expression" dxfId="71" priority="21">
       <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="62" priority="23">
+    <cfRule type="expression" dxfId="70" priority="23">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="24">
+    <cfRule type="expression" dxfId="69" priority="24">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B152">
-    <cfRule type="expression" dxfId="60" priority="26">
+    <cfRule type="expression" dxfId="68" priority="26">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="27">
+    <cfRule type="expression" dxfId="67" priority="27">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B120">
-    <cfRule type="expression" dxfId="58" priority="240">
+    <cfRule type="expression" dxfId="66" priority="240">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="241">
+    <cfRule type="expression" dxfId="65" priority="241">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="56" priority="256">
+    <cfRule type="expression" dxfId="64" priority="256">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="257">
+    <cfRule type="expression" dxfId="63" priority="257">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27076,7 +27148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -27191,7 +27263,7 @@
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B3" s="6">
         <v>4016</v>
@@ -27223,7 +27295,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B4" s="6">
         <v>4019</v>
@@ -27259,7 +27331,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B5" s="6">
         <v>4010</v>
@@ -27279,7 +27351,7 @@
         <v>1.2939814812853001E-2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>7</v>
@@ -27300,7 +27372,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B6" s="6">
         <v>4026</v>
@@ -27320,7 +27392,7 @@
         <v>6.2731481448281556E-3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>15</v>
@@ -27341,7 +27413,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B7" s="6">
         <v>4011</v>
@@ -27380,7 +27452,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B8" s="6">
         <v>4012</v>
@@ -27419,7 +27491,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B9" s="6">
         <v>4044</v>
@@ -27457,7 +27529,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B10" s="6">
         <v>4043</v>
@@ -27480,7 +27552,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B11" s="6">
         <v>4016</v>
@@ -27503,7 +27575,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B12" s="6">
         <v>4015</v>
@@ -27526,7 +27598,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B13" s="6">
         <v>4020</v>
@@ -27549,7 +27621,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B14" s="6">
         <v>4019</v>
@@ -27572,7 +27644,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B15" s="6">
         <v>4042</v>
@@ -27595,7 +27667,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B16" s="6">
         <v>4041</v>
@@ -27618,7 +27690,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B17" s="6">
         <v>4009</v>
@@ -27641,7 +27713,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B18" s="6">
         <v>4010</v>
@@ -27664,7 +27736,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B19" s="6">
         <v>4023</v>
@@ -27687,7 +27759,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B20" s="6">
         <v>4011</v>
@@ -27710,7 +27782,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B21" s="6">
         <v>4012</v>
@@ -27733,7 +27805,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B22" s="6">
         <v>4044</v>
@@ -27756,7 +27828,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B23" s="6">
         <v>4043</v>
@@ -27779,7 +27851,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B24" s="6">
         <v>4016</v>
@@ -27802,7 +27874,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B25" s="6">
         <v>4015</v>
@@ -27825,7 +27897,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B26" s="6">
         <v>4020</v>
@@ -27848,7 +27920,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B27" s="6">
         <v>4019</v>
@@ -27871,7 +27943,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B28" s="6">
         <v>4025</v>
@@ -27894,7 +27966,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B29" s="6">
         <v>4026</v>
@@ -27917,7 +27989,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B30" s="6">
         <v>4009</v>
@@ -27940,7 +28012,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B31" s="6">
         <v>4010</v>
@@ -27963,7 +28035,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B32" s="6">
         <v>4024</v>
@@ -27988,7 +28060,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B33" s="6">
         <v>4023</v>
@@ -28011,7 +28083,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B34" s="6">
         <v>4011</v>
@@ -28034,7 +28106,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B35" s="6">
         <v>4012</v>
@@ -28057,7 +28129,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B36" s="6">
         <v>4044</v>
@@ -28080,7 +28152,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B37" s="6">
         <v>4043</v>
@@ -28103,7 +28175,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B38" s="6">
         <v>4016</v>
@@ -28126,7 +28198,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B39" s="6">
         <v>4015</v>
@@ -28149,7 +28221,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B40" s="6">
         <v>4020</v>
@@ -28172,7 +28244,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B41" s="6">
         <v>4019</v>
@@ -28195,7 +28267,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B42" s="6">
         <v>4025</v>
@@ -28218,7 +28290,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B43" s="6">
         <v>4026</v>
@@ -28241,7 +28313,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B44" s="6">
         <v>4009</v>
@@ -28260,12 +28332,12 @@
         <v>2.4398148147156462E-2</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B45" s="6">
         <v>4010</v>
@@ -28288,7 +28360,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B46" s="6">
         <v>4024</v>
@@ -28311,7 +28383,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B47" s="6">
         <v>4023</v>
@@ -28334,7 +28406,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B48" s="6">
         <v>4011</v>
@@ -28357,7 +28429,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B49" s="6">
         <v>4012</v>
@@ -28380,7 +28452,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B50" s="6">
         <v>4044</v>
@@ -28403,7 +28475,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B51" s="6">
         <v>4043</v>
@@ -28426,7 +28498,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B52" s="6">
         <v>4016</v>
@@ -28449,7 +28521,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B53" s="6">
         <v>4015</v>
@@ -28472,7 +28544,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B54" s="6">
         <v>4020</v>
@@ -28495,7 +28567,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B55" s="6">
         <v>4019</v>
@@ -28518,7 +28590,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B56" s="6">
         <v>4025</v>
@@ -28541,7 +28613,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B57" s="6">
         <v>4026</v>
@@ -28564,7 +28636,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B58" s="6">
         <v>4009</v>
@@ -28587,7 +28659,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B59" s="6">
         <v>4010</v>
@@ -28612,7 +28684,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B60" s="6">
         <v>4024</v>
@@ -28635,7 +28707,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B61" s="6">
         <v>4023</v>
@@ -28658,7 +28730,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B62" s="6">
         <v>4011</v>
@@ -28678,12 +28750,12 @@
         <v>1.3831018521159422E-2</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B63" s="6">
         <v>4012</v>
@@ -28706,7 +28778,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B64" s="6">
         <v>4044</v>
@@ -28729,7 +28801,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B65" s="6">
         <v>4043</v>
@@ -28752,7 +28824,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B66" s="6">
         <v>4016</v>
@@ -28775,7 +28847,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B67" s="6">
         <v>4015</v>
@@ -28798,7 +28870,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B68" s="6">
         <v>4020</v>
@@ -28821,7 +28893,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B69" s="6">
         <v>4019</v>
@@ -28844,7 +28916,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B70" s="6">
         <v>4025</v>
@@ -28867,7 +28939,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B71" s="6">
         <v>4026</v>
@@ -28890,7 +28962,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B72" s="6">
         <v>4042</v>
@@ -28913,7 +28985,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B73" s="6">
         <v>4041</v>
@@ -28936,7 +29008,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B74" s="6">
         <v>4024</v>
@@ -28959,7 +29031,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B75" s="6">
         <v>4023</v>
@@ -28982,7 +29054,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B76" s="6">
         <v>4011</v>
@@ -29005,7 +29077,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B77" s="6">
         <v>4012</v>
@@ -29028,7 +29100,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B78" s="6">
         <v>4044</v>
@@ -29051,7 +29123,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B79" s="6">
         <v>4043</v>
@@ -29074,7 +29146,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B80" s="6">
         <v>4016</v>
@@ -29097,7 +29169,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B81" s="6">
         <v>4015</v>
@@ -29120,7 +29192,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B82" s="6">
         <v>4020</v>
@@ -29143,7 +29215,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B83" s="6">
         <v>4019</v>
@@ -29166,7 +29238,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B84" s="6">
         <v>4025</v>
@@ -29189,7 +29261,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B85" s="6">
         <v>4026</v>
@@ -29212,7 +29284,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B86" s="6">
         <v>4042</v>
@@ -29235,7 +29307,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B87" s="6">
         <v>4041</v>
@@ -29258,7 +29330,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B88" s="6">
         <v>4024</v>
@@ -29281,7 +29353,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B89" s="6">
         <v>4023</v>
@@ -29304,7 +29376,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B90" s="6">
         <v>4011</v>
@@ -29327,7 +29399,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B91" s="6">
         <v>4012</v>
@@ -29350,7 +29422,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B92" s="6">
         <v>4044</v>
@@ -29373,7 +29445,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B93" s="6">
         <v>4043</v>
@@ -29396,7 +29468,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B94" s="6">
         <v>4016</v>
@@ -29419,7 +29491,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B95" s="6">
         <v>4015</v>
@@ -29442,7 +29514,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B96" s="6">
         <v>4020</v>
@@ -29465,7 +29537,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B97" s="6">
         <v>4019</v>
@@ -29488,7 +29560,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B98" s="6">
         <v>4025</v>
@@ -29511,7 +29583,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B99" s="6">
         <v>4026</v>
@@ -29534,7 +29606,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B100" s="6">
         <v>4042</v>
@@ -29557,7 +29629,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B101" s="6">
         <v>4041</v>
@@ -29580,7 +29652,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B102" s="6">
         <v>4024</v>
@@ -29599,12 +29671,12 @@
         <v>3.1863425923802424E-2</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B103" s="6">
         <v>4023</v>
@@ -29627,7 +29699,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B104" s="6">
         <v>4011</v>
@@ -29650,7 +29722,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B105" s="6">
         <v>4012</v>
@@ -29673,7 +29745,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B106" s="6">
         <v>4044</v>
@@ -29696,7 +29768,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B107" s="6">
         <v>4043</v>
@@ -29719,7 +29791,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B108" s="6">
         <v>4016</v>
@@ -29742,7 +29814,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B109" s="6">
         <v>4015</v>
@@ -29765,7 +29837,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B110" s="6">
         <v>4020</v>
@@ -29788,7 +29860,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B111" s="6">
         <v>4019</v>
@@ -29811,7 +29883,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B112" s="6">
         <v>4025</v>
@@ -29834,7 +29906,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B113" s="6">
         <v>4026</v>
@@ -29857,7 +29929,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B114" s="6">
         <v>4042</v>
@@ -29880,7 +29952,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B115" s="6">
         <v>4041</v>
@@ -29903,7 +29975,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B116" s="6">
         <v>4024</v>
@@ -29926,7 +29998,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B117" s="6">
         <v>4023</v>
@@ -29949,7 +30021,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B118" s="6">
         <v>4011</v>
@@ -29972,7 +30044,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B119" s="6">
         <v>4012</v>
@@ -29994,7 +30066,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B120" s="6">
         <v>4016</v>
@@ -30017,7 +30089,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B121" s="6">
         <v>4015</v>
@@ -30040,7 +30112,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B122" s="6">
         <v>4025</v>
@@ -30063,7 +30135,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B123" s="6">
         <v>4026</v>
@@ -30086,7 +30158,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B124" s="6">
         <v>4024</v>
@@ -30109,7 +30181,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B125" s="6">
         <v>4023</v>
@@ -30132,7 +30204,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B126" s="6">
         <v>4011</v>
@@ -30155,7 +30227,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B127" s="6">
         <v>4012</v>
@@ -30178,7 +30250,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B128" s="6">
         <v>4016</v>
@@ -30201,7 +30273,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B129" s="6">
         <v>4015</v>
@@ -30223,7 +30295,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B130" s="6">
         <v>4025</v>
@@ -30246,7 +30318,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B131" s="6">
         <v>4026</v>
@@ -30269,7 +30341,7 @@
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B132" s="6">
         <v>4024</v>
@@ -30293,7 +30365,7 @@
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B133" s="6">
         <v>4023</v>
@@ -30317,7 +30389,7 @@
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B134" s="6">
         <v>4011</v>
@@ -30341,7 +30413,7 @@
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B135" s="6">
         <v>4012</v>
@@ -30365,7 +30437,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B136" s="6">
         <v>4016</v>
@@ -30390,7 +30462,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B137" s="6">
         <v>4015</v>
@@ -30416,7 +30488,7 @@
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B138" s="6">
         <v>4025</v>
@@ -30444,7 +30516,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B139" s="6">
         <v>4026</v>
@@ -30469,7 +30541,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B140" s="6">
         <v>4024</v>
@@ -30494,7 +30566,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B141" s="6">
         <v>4023</v>
@@ -30519,7 +30591,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B142" s="6">
         <v>4011</v>
@@ -30542,7 +30614,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B143" s="6">
         <v>4012</v>
@@ -30562,7 +30634,7 @@
         <v>3.1412037038535345E-2</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -30666,122 +30738,122 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A149:G153 C3:G148">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="51" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G148">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119 A27:B41 A103:B106 A45:B45 A49:B99">
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="45" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26 A43:B44 A101:B102">
-    <cfRule type="expression" dxfId="35" priority="11">
+    <cfRule type="expression" dxfId="43" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="42" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:B115 A120:B123">
-    <cfRule type="expression" dxfId="33" priority="14">
+    <cfRule type="expression" dxfId="41" priority="14">
       <formula>$P111&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="15">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>$O111&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B126">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="39" priority="17">
       <formula>$P130&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>$O130&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:B127">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="37" priority="20">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="21">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B148">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:B116">
-    <cfRule type="expression" dxfId="23" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="expression" dxfId="21" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$P138&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="34">
+    <cfRule type="expression" dxfId="28" priority="34">
       <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42 A100:B100">
-    <cfRule type="expression" dxfId="19" priority="275">
+    <cfRule type="expression" dxfId="27" priority="275">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="276">
+    <cfRule type="expression" dxfId="26" priority="276">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B48">
-    <cfRule type="expression" dxfId="5" priority="295">
+    <cfRule type="expression" dxfId="25" priority="295">
       <formula>$P49&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="296">
+    <cfRule type="expression" dxfId="24" priority="296">
       <formula>$O49&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="expression" dxfId="3" priority="297">
+    <cfRule type="expression" dxfId="23" priority="297">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="298">
+    <cfRule type="expression" dxfId="22" priority="298">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32068,145 +32140,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H4">
-    <cfRule type="expression" dxfId="251" priority="45">
+    <cfRule type="expression" dxfId="259" priority="45">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="46">
+    <cfRule type="expression" dxfId="258" priority="46">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="47">
+    <cfRule type="expression" dxfId="257" priority="47">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G8 F5:H6">
-    <cfRule type="expression" dxfId="248" priority="42">
+    <cfRule type="expression" dxfId="256" priority="42">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="43">
+    <cfRule type="expression" dxfId="255" priority="43">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="44">
+    <cfRule type="expression" dxfId="254" priority="44">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E8 H9:H11 H14:H18">
-    <cfRule type="expression" dxfId="245" priority="40">
+    <cfRule type="expression" dxfId="253" priority="40">
       <formula>$Q5&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="41">
+    <cfRule type="expression" dxfId="252" priority="41">
       <formula>$P5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="243" priority="37">
+    <cfRule type="expression" dxfId="251" priority="37">
       <formula>$Q7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="38">
+    <cfRule type="expression" dxfId="250" priority="38">
       <formula>$P7&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="241" priority="34">
+    <cfRule type="expression" dxfId="249" priority="34">
       <formula>$Q8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="35">
+    <cfRule type="expression" dxfId="248" priority="35">
       <formula>$P8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11">
-    <cfRule type="expression" dxfId="239" priority="30">
+    <cfRule type="expression" dxfId="247" priority="30">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="31">
+    <cfRule type="expression" dxfId="246" priority="31">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="32">
+    <cfRule type="expression" dxfId="245" priority="32">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="expression" dxfId="236" priority="28">
+    <cfRule type="expression" dxfId="244" priority="28">
       <formula>$Q9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="29">
+    <cfRule type="expression" dxfId="243" priority="29">
       <formula>$P9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G13">
-    <cfRule type="expression" dxfId="234" priority="24">
+    <cfRule type="expression" dxfId="242" priority="24">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="25">
+    <cfRule type="expression" dxfId="241" priority="25">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="26">
+    <cfRule type="expression" dxfId="240" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E13">
-    <cfRule type="expression" dxfId="231" priority="22">
+    <cfRule type="expression" dxfId="239" priority="22">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="23">
+    <cfRule type="expression" dxfId="238" priority="23">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="229" priority="19">
+    <cfRule type="expression" dxfId="237" priority="19">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="20">
+    <cfRule type="expression" dxfId="236" priority="20">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="227" priority="16">
+    <cfRule type="expression" dxfId="235" priority="16">
       <formula>$Q13&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="17">
+    <cfRule type="expression" dxfId="234" priority="17">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G18">
-    <cfRule type="expression" dxfId="225" priority="12">
+    <cfRule type="expression" dxfId="233" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="13">
+    <cfRule type="expression" dxfId="232" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="14">
+    <cfRule type="expression" dxfId="231" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E18">
-    <cfRule type="expression" dxfId="222" priority="10">
+    <cfRule type="expression" dxfId="230" priority="10">
       <formula>$Q14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="11">
+    <cfRule type="expression" dxfId="229" priority="11">
       <formula>$P14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:E41 G35:H41">
-    <cfRule type="expression" dxfId="220" priority="6">
+    <cfRule type="expression" dxfId="228" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="7">
+    <cfRule type="expression" dxfId="227" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="8">
+    <cfRule type="expression" dxfId="226" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C41 F35:F41">
-    <cfRule type="expression" dxfId="217" priority="4">
+    <cfRule type="expression" dxfId="225" priority="4">
       <formula>$P35&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="5">
+    <cfRule type="expression" dxfId="224" priority="5">
       <formula>$O35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:E41 G35:H41">
-    <cfRule type="expression" dxfId="215" priority="2">
+    <cfRule type="expression" dxfId="223" priority="2">
       <formula>NOT(ISBLANK($G35))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32440,7 +32512,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C10" s="61">
         <f>C77</f>
@@ -32449,7 +32521,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C11" s="61">
         <f>C85</f>
@@ -32458,7 +32530,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="54" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C12" s="61">
         <f>C93</f>
@@ -32467,7 +32539,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C13" s="61">
         <f>C101</f>
@@ -32476,7 +32548,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="54" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C14" s="61">
         <f>$C$109</f>
@@ -37648,56 +37720,56 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A151:G175 C149:G150">
-    <cfRule type="expression" dxfId="204" priority="28">
+    <cfRule type="expression" dxfId="212" priority="28">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="29">
+    <cfRule type="expression" dxfId="211" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="30">
+    <cfRule type="expression" dxfId="210" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:B150">
-    <cfRule type="expression" dxfId="201" priority="26">
+    <cfRule type="expression" dxfId="209" priority="26">
       <formula>$P149&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="27">
+    <cfRule type="expression" dxfId="208" priority="27">
       <formula>$O149&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G148">
-    <cfRule type="expression" dxfId="199" priority="10">
+    <cfRule type="expression" dxfId="207" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="11">
+    <cfRule type="expression" dxfId="206" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="12">
+    <cfRule type="expression" dxfId="205" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B148">
-    <cfRule type="expression" dxfId="196" priority="8">
+    <cfRule type="expression" dxfId="204" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="9">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C148">
-    <cfRule type="expression" dxfId="194" priority="5">
+    <cfRule type="expression" dxfId="202" priority="5">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="6">
+    <cfRule type="expression" dxfId="201" priority="6">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D148">
-    <cfRule type="expression" dxfId="192" priority="2">
+    <cfRule type="expression" dxfId="200" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="3">
+    <cfRule type="expression" dxfId="199" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41133,21 +41205,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G149">
-    <cfRule type="expression" dxfId="186" priority="4">
+    <cfRule type="expression" dxfId="194" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="5">
+    <cfRule type="expression" dxfId="193" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="6">
+    <cfRule type="expression" dxfId="192" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B149">
-    <cfRule type="expression" dxfId="183" priority="2">
+    <cfRule type="expression" dxfId="191" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="3">
+    <cfRule type="expression" dxfId="190" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44743,26 +44815,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G176 C3:G147">
-    <cfRule type="expression" dxfId="180" priority="5">
+    <cfRule type="expression" dxfId="188" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="6">
+    <cfRule type="expression" dxfId="187" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="7">
+    <cfRule type="expression" dxfId="186" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="177" priority="3">
+    <cfRule type="expression" dxfId="185" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="4">
+    <cfRule type="expression" dxfId="184" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="175" priority="1">
+    <cfRule type="expression" dxfId="183" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48312,42 +48384,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A146:G174 C3:G145">
-    <cfRule type="expression" dxfId="173" priority="16">
+    <cfRule type="expression" dxfId="181" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="17">
+    <cfRule type="expression" dxfId="180" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="18">
+    <cfRule type="expression" dxfId="179" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B86 A88:B145 B87">
-    <cfRule type="expression" dxfId="170" priority="14">
+    <cfRule type="expression" dxfId="178" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="15">
+    <cfRule type="expression" dxfId="177" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G86 A88:G145 B87:G87">
-    <cfRule type="expression" dxfId="168" priority="12">
+    <cfRule type="expression" dxfId="176" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="167" priority="6">
+    <cfRule type="expression" dxfId="175" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="7">
+    <cfRule type="expression" dxfId="174" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="8">
+    <cfRule type="expression" dxfId="173" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="164" priority="5">
+    <cfRule type="expression" dxfId="172" priority="5">
       <formula>NOT(ISBLANK($G87))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51873,42 +51945,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G172 C3:D144 F3:G144">
-    <cfRule type="expression" dxfId="162" priority="12">
+    <cfRule type="expression" dxfId="170" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="13">
+    <cfRule type="expression" dxfId="169" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="14">
+    <cfRule type="expression" dxfId="168" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A86:B144 A3:B84 E3:E144">
-    <cfRule type="expression" dxfId="159" priority="10">
+    <cfRule type="expression" dxfId="167" priority="10">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="11">
+    <cfRule type="expression" dxfId="166" priority="11">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A86:D144 A3:D84 F3:G144">
-    <cfRule type="expression" dxfId="157" priority="8">
+    <cfRule type="expression" dxfId="165" priority="8">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="156" priority="5">
+    <cfRule type="expression" dxfId="164" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="6">
+    <cfRule type="expression" dxfId="163" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="7">
+    <cfRule type="expression" dxfId="162" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="153" priority="4">
+    <cfRule type="expression" dxfId="161" priority="4">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55452,26 +55524,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G171 D3:D146 F3:G146">
-    <cfRule type="expression" dxfId="150" priority="16">
+    <cfRule type="expression" dxfId="158" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="17">
+    <cfRule type="expression" dxfId="157" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="18">
+    <cfRule type="expression" dxfId="156" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E146 A3:C146">
-    <cfRule type="expression" dxfId="147" priority="14">
+    <cfRule type="expression" dxfId="155" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="15">
+    <cfRule type="expression" dxfId="154" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F146 D3:D143 F3:G143">
-    <cfRule type="expression" dxfId="145" priority="12">
+    <cfRule type="expression" dxfId="153" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
